--- a/kihon_s/kinouitiran_s.xlsx
+++ b/kihon_s/kinouitiran_s.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -76,6 +76,9 @@
     <t>岡田</t>
   </si>
   <si>
+    <t>機能追加（list)</t>
+  </si>
+  <si>
     <t>※グレーになっているところは将来的にできるようになりたい部分</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>担当者</t>
+  </si>
+  <si>
+    <t>追加</t>
   </si>
   <si>
     <t>PKストア</t>
@@ -267,13 +273,32 @@
   <si>
     <t>特別アカウントでログインした時のみ会員を削除することができる</t>
   </si>
+  <si>
+    <t>リスト（検索機能）</t>
+  </si>
+  <si>
+    <t>検索機能</t>
+  </si>
+  <si>
+    <t>会員検索機能</t>
+  </si>
+  <si>
+    <t>管理者画面で会員情報を検索できる</t>
+  </si>
+  <si>
+    <t>登録情報検索</t>
+  </si>
+  <si>
+    <t>管理者画面で登録情報を検索できる</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="m/d"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -678,7 +703,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -826,6 +851,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -850,6 +881,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
@@ -865,6 +899,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -876,6 +913,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -920,6 +960,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -7000,11 +7043,15 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="48"/>
+      <c r="F27" s="44">
+        <v>45168</v>
+      </c>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
+      <c r="J27" t="s" s="42">
+        <v>20</v>
+      </c>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
@@ -9843,7 +9890,7 @@
       <c r="FT42" s="18"/>
     </row>
     <row r="43" ht="12.95" customHeight="1">
-      <c r="A43" s="49"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
@@ -9874,159 +9921,160 @@
       <c r="AC43" s="24"/>
       <c r="AD43" s="24"/>
       <c r="AE43" s="19"/>
-      <c r="AF43" s="50"/>
-      <c r="AG43" s="51"/>
-      <c r="AH43" s="52"/>
-      <c r="AI43" s="52"/>
-      <c r="AJ43" s="52"/>
-      <c r="AK43" s="52"/>
-      <c r="AL43" s="52"/>
-      <c r="AM43" s="52"/>
-      <c r="AN43" s="52"/>
-      <c r="AO43" s="52"/>
-      <c r="AP43" s="52"/>
-      <c r="AQ43" s="52"/>
-      <c r="AR43" s="52"/>
-      <c r="AS43" s="52"/>
-      <c r="AT43" s="52"/>
-      <c r="AU43" s="52"/>
-      <c r="AV43" s="52"/>
-      <c r="AW43" s="52"/>
-      <c r="AX43" s="52"/>
-      <c r="AY43" s="52"/>
-      <c r="AZ43" s="52"/>
-      <c r="BA43" s="52"/>
-      <c r="BB43" s="52"/>
-      <c r="BC43" s="52"/>
-      <c r="BD43" s="52"/>
-      <c r="BE43" s="52"/>
-      <c r="BF43" s="52"/>
-      <c r="BG43" s="52"/>
-      <c r="BH43" s="52"/>
-      <c r="BI43" s="52"/>
-      <c r="BJ43" s="52"/>
-      <c r="BK43" s="52"/>
-      <c r="BL43" s="52"/>
-      <c r="BM43" s="52"/>
-      <c r="BN43" s="52"/>
-      <c r="BO43" s="52"/>
-      <c r="BP43" s="52"/>
-      <c r="BQ43" s="52"/>
-      <c r="BR43" s="52"/>
-      <c r="BS43" s="52"/>
-      <c r="BT43" s="52"/>
-      <c r="BU43" s="52"/>
-      <c r="BV43" s="52"/>
-      <c r="BW43" s="52"/>
-      <c r="BX43" s="52"/>
-      <c r="BY43" s="52"/>
-      <c r="BZ43" s="52"/>
-      <c r="CA43" s="52"/>
-      <c r="CB43" s="52"/>
-      <c r="CC43" s="52"/>
-      <c r="CD43" s="52"/>
-      <c r="CE43" s="52"/>
-      <c r="CF43" s="52"/>
-      <c r="CG43" s="52"/>
-      <c r="CH43" s="52"/>
-      <c r="CI43" s="52"/>
-      <c r="CJ43" s="52"/>
-      <c r="CK43" s="52"/>
-      <c r="CL43" s="52"/>
-      <c r="CM43" s="52"/>
-      <c r="CN43" s="52"/>
-      <c r="CO43" s="52"/>
-      <c r="CP43" s="52"/>
-      <c r="CQ43" s="52"/>
-      <c r="CR43" s="52"/>
-      <c r="CS43" s="52"/>
-      <c r="CT43" s="52"/>
-      <c r="CU43" s="52"/>
-      <c r="CV43" s="52"/>
-      <c r="CW43" s="52"/>
-      <c r="CX43" s="52"/>
-      <c r="CY43" s="52"/>
-      <c r="CZ43" s="52"/>
-      <c r="DA43" s="52"/>
-      <c r="DB43" s="52"/>
-      <c r="DC43" s="52"/>
-      <c r="DD43" s="52"/>
-      <c r="DE43" s="52"/>
-      <c r="DF43" s="52"/>
-      <c r="DG43" s="52"/>
-      <c r="DH43" s="52"/>
-      <c r="DI43" s="52"/>
-      <c r="DJ43" s="52"/>
-      <c r="DK43" s="52"/>
-      <c r="DL43" s="52"/>
-      <c r="DM43" s="52"/>
-      <c r="DN43" s="52"/>
-      <c r="DO43" s="52"/>
-      <c r="DP43" s="52"/>
-      <c r="DQ43" s="52"/>
-      <c r="DR43" s="52"/>
-      <c r="DS43" s="52"/>
-      <c r="DT43" s="52"/>
-      <c r="DU43" s="52"/>
-      <c r="DV43" s="52"/>
-      <c r="DW43" s="52"/>
-      <c r="DX43" s="52"/>
-      <c r="DY43" s="52"/>
-      <c r="DZ43" s="52"/>
-      <c r="EA43" s="52"/>
-      <c r="EB43" s="52"/>
-      <c r="EC43" s="52"/>
-      <c r="ED43" s="52"/>
-      <c r="EE43" s="52"/>
-      <c r="EF43" s="52"/>
-      <c r="EG43" s="52"/>
-      <c r="EH43" s="52"/>
-      <c r="EI43" s="52"/>
-      <c r="EJ43" s="52"/>
-      <c r="EK43" s="52"/>
-      <c r="EL43" s="52"/>
-      <c r="EM43" s="52"/>
-      <c r="EN43" s="52"/>
-      <c r="EO43" s="52"/>
-      <c r="EP43" s="52"/>
-      <c r="EQ43" s="52"/>
-      <c r="ER43" s="52"/>
-      <c r="ES43" s="52"/>
-      <c r="ET43" s="52"/>
-      <c r="EU43" s="52"/>
-      <c r="EV43" s="52"/>
-      <c r="EW43" s="52"/>
-      <c r="EX43" s="52"/>
-      <c r="EY43" s="52"/>
-      <c r="EZ43" s="52"/>
-      <c r="FA43" s="52"/>
-      <c r="FB43" s="52"/>
-      <c r="FC43" s="52"/>
-      <c r="FD43" s="52"/>
-      <c r="FE43" s="52"/>
-      <c r="FF43" s="52"/>
-      <c r="FG43" s="52"/>
-      <c r="FH43" s="52"/>
-      <c r="FI43" s="52"/>
-      <c r="FJ43" s="52"/>
-      <c r="FK43" s="52"/>
-      <c r="FL43" s="52"/>
-      <c r="FM43" s="52"/>
-      <c r="FN43" s="52"/>
-      <c r="FO43" s="52"/>
-      <c r="FP43" s="52"/>
-      <c r="FQ43" s="52"/>
-      <c r="FR43" s="52"/>
-      <c r="FS43" s="52"/>
-      <c r="FT43" s="53"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="53"/>
+      <c r="AH43" s="54"/>
+      <c r="AI43" s="54"/>
+      <c r="AJ43" s="54"/>
+      <c r="AK43" s="54"/>
+      <c r="AL43" s="54"/>
+      <c r="AM43" s="54"/>
+      <c r="AN43" s="54"/>
+      <c r="AO43" s="54"/>
+      <c r="AP43" s="54"/>
+      <c r="AQ43" s="54"/>
+      <c r="AR43" s="54"/>
+      <c r="AS43" s="54"/>
+      <c r="AT43" s="54"/>
+      <c r="AU43" s="54"/>
+      <c r="AV43" s="54"/>
+      <c r="AW43" s="54"/>
+      <c r="AX43" s="54"/>
+      <c r="AY43" s="54"/>
+      <c r="AZ43" s="54"/>
+      <c r="BA43" s="54"/>
+      <c r="BB43" s="54"/>
+      <c r="BC43" s="54"/>
+      <c r="BD43" s="54"/>
+      <c r="BE43" s="54"/>
+      <c r="BF43" s="54"/>
+      <c r="BG43" s="54"/>
+      <c r="BH43" s="54"/>
+      <c r="BI43" s="54"/>
+      <c r="BJ43" s="54"/>
+      <c r="BK43" s="54"/>
+      <c r="BL43" s="54"/>
+      <c r="BM43" s="54"/>
+      <c r="BN43" s="54"/>
+      <c r="BO43" s="54"/>
+      <c r="BP43" s="54"/>
+      <c r="BQ43" s="54"/>
+      <c r="BR43" s="54"/>
+      <c r="BS43" s="54"/>
+      <c r="BT43" s="54"/>
+      <c r="BU43" s="54"/>
+      <c r="BV43" s="54"/>
+      <c r="BW43" s="54"/>
+      <c r="BX43" s="54"/>
+      <c r="BY43" s="54"/>
+      <c r="BZ43" s="54"/>
+      <c r="CA43" s="54"/>
+      <c r="CB43" s="54"/>
+      <c r="CC43" s="54"/>
+      <c r="CD43" s="54"/>
+      <c r="CE43" s="54"/>
+      <c r="CF43" s="54"/>
+      <c r="CG43" s="54"/>
+      <c r="CH43" s="54"/>
+      <c r="CI43" s="54"/>
+      <c r="CJ43" s="54"/>
+      <c r="CK43" s="54"/>
+      <c r="CL43" s="54"/>
+      <c r="CM43" s="54"/>
+      <c r="CN43" s="54"/>
+      <c r="CO43" s="54"/>
+      <c r="CP43" s="54"/>
+      <c r="CQ43" s="54"/>
+      <c r="CR43" s="54"/>
+      <c r="CS43" s="54"/>
+      <c r="CT43" s="54"/>
+      <c r="CU43" s="54"/>
+      <c r="CV43" s="54"/>
+      <c r="CW43" s="54"/>
+      <c r="CX43" s="54"/>
+      <c r="CY43" s="54"/>
+      <c r="CZ43" s="54"/>
+      <c r="DA43" s="54"/>
+      <c r="DB43" s="54"/>
+      <c r="DC43" s="54"/>
+      <c r="DD43" s="54"/>
+      <c r="DE43" s="54"/>
+      <c r="DF43" s="54"/>
+      <c r="DG43" s="54"/>
+      <c r="DH43" s="54"/>
+      <c r="DI43" s="54"/>
+      <c r="DJ43" s="54"/>
+      <c r="DK43" s="54"/>
+      <c r="DL43" s="54"/>
+      <c r="DM43" s="54"/>
+      <c r="DN43" s="54"/>
+      <c r="DO43" s="54"/>
+      <c r="DP43" s="54"/>
+      <c r="DQ43" s="54"/>
+      <c r="DR43" s="54"/>
+      <c r="DS43" s="54"/>
+      <c r="DT43" s="54"/>
+      <c r="DU43" s="54"/>
+      <c r="DV43" s="54"/>
+      <c r="DW43" s="54"/>
+      <c r="DX43" s="54"/>
+      <c r="DY43" s="54"/>
+      <c r="DZ43" s="54"/>
+      <c r="EA43" s="54"/>
+      <c r="EB43" s="54"/>
+      <c r="EC43" s="54"/>
+      <c r="ED43" s="54"/>
+      <c r="EE43" s="54"/>
+      <c r="EF43" s="54"/>
+      <c r="EG43" s="54"/>
+      <c r="EH43" s="54"/>
+      <c r="EI43" s="54"/>
+      <c r="EJ43" s="54"/>
+      <c r="EK43" s="54"/>
+      <c r="EL43" s="54"/>
+      <c r="EM43" s="54"/>
+      <c r="EN43" s="54"/>
+      <c r="EO43" s="54"/>
+      <c r="EP43" s="54"/>
+      <c r="EQ43" s="54"/>
+      <c r="ER43" s="54"/>
+      <c r="ES43" s="54"/>
+      <c r="ET43" s="54"/>
+      <c r="EU43" s="54"/>
+      <c r="EV43" s="54"/>
+      <c r="EW43" s="54"/>
+      <c r="EX43" s="54"/>
+      <c r="EY43" s="54"/>
+      <c r="EZ43" s="54"/>
+      <c r="FA43" s="54"/>
+      <c r="FB43" s="54"/>
+      <c r="FC43" s="54"/>
+      <c r="FD43" s="54"/>
+      <c r="FE43" s="54"/>
+      <c r="FF43" s="54"/>
+      <c r="FG43" s="54"/>
+      <c r="FH43" s="54"/>
+      <c r="FI43" s="54"/>
+      <c r="FJ43" s="54"/>
+      <c r="FK43" s="54"/>
+      <c r="FL43" s="54"/>
+      <c r="FM43" s="54"/>
+      <c r="FN43" s="54"/>
+      <c r="FO43" s="54"/>
+      <c r="FP43" s="54"/>
+      <c r="FQ43" s="54"/>
+      <c r="FR43" s="54"/>
+      <c r="FS43" s="54"/>
+      <c r="FT43" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="L17:U19"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F9:Q10"/>
+    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <pageMargins left="0.393701" right="0.393701" top="0.590551" bottom="0.393701" header="0.511811" footer="0.314961"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="95" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -10039,53 +10087,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:FQ29"/>
+  <dimension ref="A1:FQ30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="4.15625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="12.7188" style="54" customWidth="1"/>
-    <col min="10" max="29" width="4.15625" style="54" customWidth="1"/>
-    <col min="30" max="33" width="4" style="54" customWidth="1"/>
-    <col min="34" max="173" width="9" style="54" customWidth="1"/>
-    <col min="174" max="16384" width="9" style="54" customWidth="1"/>
+    <col min="1" max="8" width="4.15625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="12.7188" style="56" customWidth="1"/>
+    <col min="10" max="29" width="4.15625" style="56" customWidth="1"/>
+    <col min="30" max="33" width="4" style="56" customWidth="1"/>
+    <col min="34" max="173" width="9" style="56" customWidth="1"/>
+    <col min="174" max="16384" width="9" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="55">
+      <c r="A1" t="s" s="57">
         <v>10</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="12"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="59"/>
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
@@ -10231,15 +10279,15 @@
       <c r="FQ1" s="13"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="57">
+      <c r="A2" t="s" s="60">
         <v>8</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" t="s" s="57">
-        <v>20</v>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" t="s" s="60">
+        <v>21</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -10260,16 +10308,18 @@
       <c r="W2" s="24"/>
       <c r="X2" s="24"/>
       <c r="Y2" s="25"/>
-      <c r="Z2" t="s" s="57">
-        <v>21</v>
-      </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" t="s" s="60">
+      <c r="Z2" t="s" s="60">
         <v>22</v>
       </c>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="15"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" t="s" s="63">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="64"/>
+      <c r="AD2" t="s" s="65">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="14"/>
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
       <c r="AH2" s="15"/>
@@ -10414,43 +10464,43 @@
       <c r="FQ2" s="18"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" t="s" s="62">
-        <v>23</v>
+      <c r="A3" t="s" s="66">
+        <v>25</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" t="s" s="60">
-        <v>24</v>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" t="s" s="63">
+        <v>26</v>
       </c>
-      <c r="AA3" s="61"/>
-      <c r="AB3" t="s" s="60">
+      <c r="AA3" s="64"/>
+      <c r="AB3" t="s" s="63">
         <v>19</v>
       </c>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="15"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="14"/>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
@@ -10595,45 +10645,45 @@
       <c r="FQ3" s="18"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" t="s" s="66">
-        <v>25</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" t="s" s="69">
-        <v>26</v>
-      </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" t="s" s="69">
+      <c r="A4" t="s" s="71">
         <v>27</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="71"/>
-      <c r="P4" t="s" s="69">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" t="s" s="74">
         <v>28</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="15"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" t="s" s="74">
+        <v>29</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+      <c r="P4" t="s" s="74">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="14"/>
       <c r="AF4" s="15"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
@@ -10779,20 +10829,20 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" t="s" s="42">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
-      <c r="F5" t="s" s="72">
-        <v>30</v>
+      <c r="F5" t="s" s="77">
+        <v>32</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="25"/>
       <c r="J5" t="s" s="42">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -10800,7 +10850,7 @@
       <c r="N5" s="24"/>
       <c r="O5" s="25"/>
       <c r="P5" t="s" s="42">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
@@ -10815,8 +10865,8 @@
       <c r="AA5" s="24"/>
       <c r="AB5" s="24"/>
       <c r="AC5" s="25"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="15"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="14"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
@@ -10971,7 +11021,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
       <c r="J6" t="s" s="42">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
@@ -10979,7 +11029,7 @@
       <c r="N6" s="24"/>
       <c r="O6" s="25"/>
       <c r="P6" t="s" s="42">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
@@ -10994,8 +11044,8 @@
       <c r="AA6" s="24"/>
       <c r="AB6" s="24"/>
       <c r="AC6" s="25"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="15"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="14"/>
       <c r="AF6" s="15"/>
       <c r="AG6" s="15"/>
       <c r="AH6" s="15"/>
@@ -11150,7 +11200,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="25"/>
       <c r="J7" t="s" s="42">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -11158,7 +11208,7 @@
       <c r="N7" s="24"/>
       <c r="O7" s="25"/>
       <c r="P7" t="s" s="42">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
@@ -11173,8 +11223,8 @@
       <c r="AA7" s="24"/>
       <c r="AB7" s="24"/>
       <c r="AC7" s="25"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="15"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="14"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
@@ -11320,20 +11370,20 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" t="s" s="42">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" t="s" s="21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="25"/>
       <c r="J8" t="s" s="42">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -11341,7 +11391,7 @@
       <c r="N8" s="24"/>
       <c r="O8" s="25"/>
       <c r="P8" t="s" s="42">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
@@ -11356,8 +11406,8 @@
       <c r="AA8" s="24"/>
       <c r="AB8" s="24"/>
       <c r="AC8" s="25"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="15"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="14"/>
       <c r="AF8" s="15"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
@@ -11512,7 +11562,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
       <c r="J9" t="s" s="42">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -11520,7 +11570,7 @@
       <c r="N9" s="24"/>
       <c r="O9" s="25"/>
       <c r="P9" t="s" s="42">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
@@ -11535,8 +11585,8 @@
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="25"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="15"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="14"/>
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="15"/>
@@ -11682,20 +11732,20 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" t="s" s="42">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" t="s" s="42">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
       <c r="J10" t="s" s="42">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -11703,7 +11753,7 @@
       <c r="N10" s="24"/>
       <c r="O10" s="25"/>
       <c r="P10" t="s" s="42">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
@@ -11718,8 +11768,8 @@
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="25"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="15"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="14"/>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
@@ -11874,7 +11924,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
       <c r="J11" t="s" s="42">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
@@ -11882,7 +11932,7 @@
       <c r="N11" s="24"/>
       <c r="O11" s="25"/>
       <c r="P11" t="s" s="42">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
@@ -11897,8 +11947,8 @@
       <c r="AA11" s="24"/>
       <c r="AB11" s="24"/>
       <c r="AC11" s="25"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="15"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="14"/>
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
       <c r="AH11" s="15"/>
@@ -12053,7 +12103,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
       <c r="J12" t="s" s="42">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
@@ -12061,7 +12111,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="25"/>
       <c r="P12" t="s" s="42">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
@@ -12076,8 +12126,8 @@
       <c r="AA12" s="24"/>
       <c r="AB12" s="24"/>
       <c r="AC12" s="25"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="15"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="14"/>
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="15"/>
@@ -12223,20 +12273,20 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s" s="42">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" t="s" s="42">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
       <c r="J13" t="s" s="42">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -12244,7 +12294,7 @@
       <c r="N13" s="24"/>
       <c r="O13" s="25"/>
       <c r="P13" t="s" s="42">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
@@ -12259,8 +12309,8 @@
       <c r="AA13" s="24"/>
       <c r="AB13" s="24"/>
       <c r="AC13" s="25"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="15"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="14"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="15"/>
@@ -12411,13 +12461,13 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" t="s" s="42">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
       <c r="J14" t="s" s="42">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -12425,7 +12475,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="25"/>
       <c r="P14" t="s" s="42">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -12440,8 +12490,8 @@
       <c r="AA14" s="24"/>
       <c r="AB14" s="24"/>
       <c r="AC14" s="25"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="15"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="14"/>
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="15"/>
@@ -12586,204 +12636,204 @@
       <c r="FQ14" s="18"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" t="s" s="73">
-        <v>53</v>
-      </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" t="s" s="73">
-        <v>54</v>
-      </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
-      <c r="J15" t="s" s="73">
-        <v>54</v>
-      </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="75"/>
-      <c r="P15" t="s" s="73">
+      <c r="A15" t="s" s="78">
         <v>55</v>
       </c>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="77"/>
-      <c r="AK15" s="77"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="77"/>
-      <c r="AU15" s="77"/>
-      <c r="AV15" s="77"/>
-      <c r="AW15" s="77"/>
-      <c r="AX15" s="77"/>
-      <c r="AY15" s="77"/>
-      <c r="AZ15" s="77"/>
-      <c r="BA15" s="77"/>
-      <c r="BB15" s="77"/>
-      <c r="BC15" s="77"/>
-      <c r="BD15" s="77"/>
-      <c r="BE15" s="77"/>
-      <c r="BF15" s="77"/>
-      <c r="BG15" s="77"/>
-      <c r="BH15" s="77"/>
-      <c r="BI15" s="77"/>
-      <c r="BJ15" s="77"/>
-      <c r="BK15" s="77"/>
-      <c r="BL15" s="77"/>
-      <c r="BM15" s="77"/>
-      <c r="BN15" s="77"/>
-      <c r="BO15" s="77"/>
-      <c r="BP15" s="77"/>
-      <c r="BQ15" s="77"/>
-      <c r="BR15" s="77"/>
-      <c r="BS15" s="77"/>
-      <c r="BT15" s="77"/>
-      <c r="BU15" s="77"/>
-      <c r="BV15" s="77"/>
-      <c r="BW15" s="77"/>
-      <c r="BX15" s="77"/>
-      <c r="BY15" s="77"/>
-      <c r="BZ15" s="77"/>
-      <c r="CA15" s="77"/>
-      <c r="CB15" s="77"/>
-      <c r="CC15" s="77"/>
-      <c r="CD15" s="77"/>
-      <c r="CE15" s="77"/>
-      <c r="CF15" s="77"/>
-      <c r="CG15" s="77"/>
-      <c r="CH15" s="77"/>
-      <c r="CI15" s="77"/>
-      <c r="CJ15" s="77"/>
-      <c r="CK15" s="77"/>
-      <c r="CL15" s="77"/>
-      <c r="CM15" s="77"/>
-      <c r="CN15" s="77"/>
-      <c r="CO15" s="77"/>
-      <c r="CP15" s="77"/>
-      <c r="CQ15" s="77"/>
-      <c r="CR15" s="77"/>
-      <c r="CS15" s="77"/>
-      <c r="CT15" s="77"/>
-      <c r="CU15" s="77"/>
-      <c r="CV15" s="77"/>
-      <c r="CW15" s="77"/>
-      <c r="CX15" s="77"/>
-      <c r="CY15" s="77"/>
-      <c r="CZ15" s="77"/>
-      <c r="DA15" s="77"/>
-      <c r="DB15" s="77"/>
-      <c r="DC15" s="77"/>
-      <c r="DD15" s="77"/>
-      <c r="DE15" s="77"/>
-      <c r="DF15" s="77"/>
-      <c r="DG15" s="77"/>
-      <c r="DH15" s="77"/>
-      <c r="DI15" s="77"/>
-      <c r="DJ15" s="77"/>
-      <c r="DK15" s="77"/>
-      <c r="DL15" s="77"/>
-      <c r="DM15" s="77"/>
-      <c r="DN15" s="77"/>
-      <c r="DO15" s="77"/>
-      <c r="DP15" s="77"/>
-      <c r="DQ15" s="77"/>
-      <c r="DR15" s="77"/>
-      <c r="DS15" s="77"/>
-      <c r="DT15" s="77"/>
-      <c r="DU15" s="77"/>
-      <c r="DV15" s="77"/>
-      <c r="DW15" s="77"/>
-      <c r="DX15" s="77"/>
-      <c r="DY15" s="77"/>
-      <c r="DZ15" s="77"/>
-      <c r="EA15" s="77"/>
-      <c r="EB15" s="77"/>
-      <c r="EC15" s="77"/>
-      <c r="ED15" s="77"/>
-      <c r="EE15" s="77"/>
-      <c r="EF15" s="77"/>
-      <c r="EG15" s="77"/>
-      <c r="EH15" s="77"/>
-      <c r="EI15" s="77"/>
-      <c r="EJ15" s="77"/>
-      <c r="EK15" s="77"/>
-      <c r="EL15" s="77"/>
-      <c r="EM15" s="77"/>
-      <c r="EN15" s="77"/>
-      <c r="EO15" s="77"/>
-      <c r="EP15" s="77"/>
-      <c r="EQ15" s="77"/>
-      <c r="ER15" s="77"/>
-      <c r="ES15" s="77"/>
-      <c r="ET15" s="77"/>
-      <c r="EU15" s="77"/>
-      <c r="EV15" s="77"/>
-      <c r="EW15" s="77"/>
-      <c r="EX15" s="77"/>
-      <c r="EY15" s="77"/>
-      <c r="EZ15" s="77"/>
-      <c r="FA15" s="77"/>
-      <c r="FB15" s="77"/>
-      <c r="FC15" s="77"/>
-      <c r="FD15" s="77"/>
-      <c r="FE15" s="77"/>
-      <c r="FF15" s="77"/>
-      <c r="FG15" s="77"/>
-      <c r="FH15" s="77"/>
-      <c r="FI15" s="77"/>
-      <c r="FJ15" s="77"/>
-      <c r="FK15" s="77"/>
-      <c r="FL15" s="77"/>
-      <c r="FM15" s="77"/>
-      <c r="FN15" s="77"/>
-      <c r="FO15" s="77"/>
-      <c r="FP15" s="77"/>
-      <c r="FQ15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" t="s" s="78">
+        <v>56</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
+      <c r="J15" t="s" s="78">
+        <v>56</v>
+      </c>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="80"/>
+      <c r="P15" t="s" s="78">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="82"/>
+      <c r="BE15" s="82"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="82"/>
+      <c r="BH15" s="82"/>
+      <c r="BI15" s="82"/>
+      <c r="BJ15" s="82"/>
+      <c r="BK15" s="82"/>
+      <c r="BL15" s="82"/>
+      <c r="BM15" s="82"/>
+      <c r="BN15" s="82"/>
+      <c r="BO15" s="82"/>
+      <c r="BP15" s="82"/>
+      <c r="BQ15" s="82"/>
+      <c r="BR15" s="82"/>
+      <c r="BS15" s="82"/>
+      <c r="BT15" s="82"/>
+      <c r="BU15" s="82"/>
+      <c r="BV15" s="82"/>
+      <c r="BW15" s="82"/>
+      <c r="BX15" s="82"/>
+      <c r="BY15" s="82"/>
+      <c r="BZ15" s="82"/>
+      <c r="CA15" s="82"/>
+      <c r="CB15" s="82"/>
+      <c r="CC15" s="82"/>
+      <c r="CD15" s="82"/>
+      <c r="CE15" s="82"/>
+      <c r="CF15" s="82"/>
+      <c r="CG15" s="82"/>
+      <c r="CH15" s="82"/>
+      <c r="CI15" s="82"/>
+      <c r="CJ15" s="82"/>
+      <c r="CK15" s="82"/>
+      <c r="CL15" s="82"/>
+      <c r="CM15" s="82"/>
+      <c r="CN15" s="82"/>
+      <c r="CO15" s="82"/>
+      <c r="CP15" s="82"/>
+      <c r="CQ15" s="82"/>
+      <c r="CR15" s="82"/>
+      <c r="CS15" s="82"/>
+      <c r="CT15" s="82"/>
+      <c r="CU15" s="82"/>
+      <c r="CV15" s="82"/>
+      <c r="CW15" s="82"/>
+      <c r="CX15" s="82"/>
+      <c r="CY15" s="82"/>
+      <c r="CZ15" s="82"/>
+      <c r="DA15" s="82"/>
+      <c r="DB15" s="82"/>
+      <c r="DC15" s="82"/>
+      <c r="DD15" s="82"/>
+      <c r="DE15" s="82"/>
+      <c r="DF15" s="82"/>
+      <c r="DG15" s="82"/>
+      <c r="DH15" s="82"/>
+      <c r="DI15" s="82"/>
+      <c r="DJ15" s="82"/>
+      <c r="DK15" s="82"/>
+      <c r="DL15" s="82"/>
+      <c r="DM15" s="82"/>
+      <c r="DN15" s="82"/>
+      <c r="DO15" s="82"/>
+      <c r="DP15" s="82"/>
+      <c r="DQ15" s="82"/>
+      <c r="DR15" s="82"/>
+      <c r="DS15" s="82"/>
+      <c r="DT15" s="82"/>
+      <c r="DU15" s="82"/>
+      <c r="DV15" s="82"/>
+      <c r="DW15" s="82"/>
+      <c r="DX15" s="82"/>
+      <c r="DY15" s="82"/>
+      <c r="DZ15" s="82"/>
+      <c r="EA15" s="82"/>
+      <c r="EB15" s="82"/>
+      <c r="EC15" s="82"/>
+      <c r="ED15" s="82"/>
+      <c r="EE15" s="82"/>
+      <c r="EF15" s="82"/>
+      <c r="EG15" s="82"/>
+      <c r="EH15" s="82"/>
+      <c r="EI15" s="82"/>
+      <c r="EJ15" s="82"/>
+      <c r="EK15" s="82"/>
+      <c r="EL15" s="82"/>
+      <c r="EM15" s="82"/>
+      <c r="EN15" s="82"/>
+      <c r="EO15" s="82"/>
+      <c r="EP15" s="82"/>
+      <c r="EQ15" s="82"/>
+      <c r="ER15" s="82"/>
+      <c r="ES15" s="82"/>
+      <c r="ET15" s="82"/>
+      <c r="EU15" s="82"/>
+      <c r="EV15" s="82"/>
+      <c r="EW15" s="82"/>
+      <c r="EX15" s="82"/>
+      <c r="EY15" s="82"/>
+      <c r="EZ15" s="82"/>
+      <c r="FA15" s="82"/>
+      <c r="FB15" s="82"/>
+      <c r="FC15" s="82"/>
+      <c r="FD15" s="82"/>
+      <c r="FE15" s="82"/>
+      <c r="FF15" s="82"/>
+      <c r="FG15" s="82"/>
+      <c r="FH15" s="82"/>
+      <c r="FI15" s="82"/>
+      <c r="FJ15" s="82"/>
+      <c r="FK15" s="82"/>
+      <c r="FL15" s="82"/>
+      <c r="FM15" s="82"/>
+      <c r="FN15" s="82"/>
+      <c r="FO15" s="82"/>
+      <c r="FP15" s="82"/>
+      <c r="FQ15" s="83"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" t="s" s="79">
-        <v>56</v>
+      <c r="A16" t="s" s="84">
+        <v>58</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
-      <c r="F16" t="s" s="72">
-        <v>57</v>
+      <c r="F16" t="s" s="77">
+        <v>59</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" t="s" s="42">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -12791,7 +12841,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="25"/>
       <c r="P16" t="s" s="42">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
@@ -12806,8 +12856,8 @@
       <c r="AA16" s="24"/>
       <c r="AB16" s="24"/>
       <c r="AC16" s="25"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="15"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="14"/>
       <c r="AF16" s="15"/>
       <c r="AG16" s="15"/>
       <c r="AH16" s="15"/>
@@ -12962,7 +13012,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
       <c r="J17" t="s" s="42">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -12970,7 +13020,7 @@
       <c r="N17" s="24"/>
       <c r="O17" s="25"/>
       <c r="P17" t="s" s="42">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
@@ -12985,8 +13035,8 @@
       <c r="AA17" s="24"/>
       <c r="AB17" s="24"/>
       <c r="AC17" s="25"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="15"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="14"/>
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="15"/>
@@ -13141,7 +13191,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" t="s" s="42">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -13149,7 +13199,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="25"/>
       <c r="P18" t="s" s="42">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
@@ -13164,8 +13214,8 @@
       <c r="AA18" s="24"/>
       <c r="AB18" s="24"/>
       <c r="AC18" s="25"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="15"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="14"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
@@ -13311,20 +13361,20 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" t="s" s="42">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
       <c r="F19" t="s" s="42">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
       <c r="J19" t="s" s="42">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
@@ -13332,7 +13382,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="25"/>
       <c r="P19" t="s" s="42">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
@@ -13347,8 +13397,8 @@
       <c r="AA19" s="24"/>
       <c r="AB19" s="24"/>
       <c r="AC19" s="25"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="15"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="14"/>
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="15"/>
@@ -13503,7 +13553,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" t="s" s="42">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -13511,7 +13561,7 @@
       <c r="N20" s="24"/>
       <c r="O20" s="25"/>
       <c r="P20" t="s" s="42">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
@@ -13526,8 +13576,8 @@
       <c r="AA20" s="24"/>
       <c r="AB20" s="24"/>
       <c r="AC20" s="25"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="15"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="14"/>
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
@@ -13673,20 +13723,20 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" t="s" s="42">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
       <c r="F21" t="s" s="42">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" t="s" s="42">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
@@ -13694,7 +13744,7 @@
       <c r="N21" s="24"/>
       <c r="O21" s="25"/>
       <c r="P21" t="s" s="42">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
@@ -13709,8 +13759,8 @@
       <c r="AA21" s="24"/>
       <c r="AB21" s="24"/>
       <c r="AC21" s="25"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="15"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="14"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
@@ -13865,7 +13915,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
       <c r="J22" t="s" s="42">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -13873,7 +13923,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="25"/>
       <c r="P22" t="s" s="42">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
@@ -13888,8 +13938,8 @@
       <c r="AA22" s="24"/>
       <c r="AB22" s="24"/>
       <c r="AC22" s="25"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="15"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="14"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
@@ -14034,541 +14084,541 @@
       <c r="FQ22" s="18"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
-      <c r="J23" t="s" s="73">
-        <v>74</v>
+      <c r="A23" s="85"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="80"/>
+      <c r="J23" t="s" s="78">
+        <v>76</v>
       </c>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="75"/>
-      <c r="P23" t="s" s="73">
-        <v>75</v>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="80"/>
+      <c r="P23" t="s" s="78">
+        <v>77</v>
       </c>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="77"/>
-      <c r="AF23" s="77"/>
-      <c r="AG23" s="77"/>
-      <c r="AH23" s="77"/>
-      <c r="AI23" s="77"/>
-      <c r="AJ23" s="77"/>
-      <c r="AK23" s="77"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="77"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="77"/>
-      <c r="AT23" s="77"/>
-      <c r="AU23" s="77"/>
-      <c r="AV23" s="77"/>
-      <c r="AW23" s="77"/>
-      <c r="AX23" s="77"/>
-      <c r="AY23" s="77"/>
-      <c r="AZ23" s="77"/>
-      <c r="BA23" s="77"/>
-      <c r="BB23" s="77"/>
-      <c r="BC23" s="77"/>
-      <c r="BD23" s="77"/>
-      <c r="BE23" s="77"/>
-      <c r="BF23" s="77"/>
-      <c r="BG23" s="77"/>
-      <c r="BH23" s="77"/>
-      <c r="BI23" s="77"/>
-      <c r="BJ23" s="77"/>
-      <c r="BK23" s="77"/>
-      <c r="BL23" s="77"/>
-      <c r="BM23" s="77"/>
-      <c r="BN23" s="77"/>
-      <c r="BO23" s="77"/>
-      <c r="BP23" s="77"/>
-      <c r="BQ23" s="77"/>
-      <c r="BR23" s="77"/>
-      <c r="BS23" s="77"/>
-      <c r="BT23" s="77"/>
-      <c r="BU23" s="77"/>
-      <c r="BV23" s="77"/>
-      <c r="BW23" s="77"/>
-      <c r="BX23" s="77"/>
-      <c r="BY23" s="77"/>
-      <c r="BZ23" s="77"/>
-      <c r="CA23" s="77"/>
-      <c r="CB23" s="77"/>
-      <c r="CC23" s="77"/>
-      <c r="CD23" s="77"/>
-      <c r="CE23" s="77"/>
-      <c r="CF23" s="77"/>
-      <c r="CG23" s="77"/>
-      <c r="CH23" s="77"/>
-      <c r="CI23" s="77"/>
-      <c r="CJ23" s="77"/>
-      <c r="CK23" s="77"/>
-      <c r="CL23" s="77"/>
-      <c r="CM23" s="77"/>
-      <c r="CN23" s="77"/>
-      <c r="CO23" s="77"/>
-      <c r="CP23" s="77"/>
-      <c r="CQ23" s="77"/>
-      <c r="CR23" s="77"/>
-      <c r="CS23" s="77"/>
-      <c r="CT23" s="77"/>
-      <c r="CU23" s="77"/>
-      <c r="CV23" s="77"/>
-      <c r="CW23" s="77"/>
-      <c r="CX23" s="77"/>
-      <c r="CY23" s="77"/>
-      <c r="CZ23" s="77"/>
-      <c r="DA23" s="77"/>
-      <c r="DB23" s="77"/>
-      <c r="DC23" s="77"/>
-      <c r="DD23" s="77"/>
-      <c r="DE23" s="77"/>
-      <c r="DF23" s="77"/>
-      <c r="DG23" s="77"/>
-      <c r="DH23" s="77"/>
-      <c r="DI23" s="77"/>
-      <c r="DJ23" s="77"/>
-      <c r="DK23" s="77"/>
-      <c r="DL23" s="77"/>
-      <c r="DM23" s="77"/>
-      <c r="DN23" s="77"/>
-      <c r="DO23" s="77"/>
-      <c r="DP23" s="77"/>
-      <c r="DQ23" s="77"/>
-      <c r="DR23" s="77"/>
-      <c r="DS23" s="77"/>
-      <c r="DT23" s="77"/>
-      <c r="DU23" s="77"/>
-      <c r="DV23" s="77"/>
-      <c r="DW23" s="77"/>
-      <c r="DX23" s="77"/>
-      <c r="DY23" s="77"/>
-      <c r="DZ23" s="77"/>
-      <c r="EA23" s="77"/>
-      <c r="EB23" s="77"/>
-      <c r="EC23" s="77"/>
-      <c r="ED23" s="77"/>
-      <c r="EE23" s="77"/>
-      <c r="EF23" s="77"/>
-      <c r="EG23" s="77"/>
-      <c r="EH23" s="77"/>
-      <c r="EI23" s="77"/>
-      <c r="EJ23" s="77"/>
-      <c r="EK23" s="77"/>
-      <c r="EL23" s="77"/>
-      <c r="EM23" s="77"/>
-      <c r="EN23" s="77"/>
-      <c r="EO23" s="77"/>
-      <c r="EP23" s="77"/>
-      <c r="EQ23" s="77"/>
-      <c r="ER23" s="77"/>
-      <c r="ES23" s="77"/>
-      <c r="ET23" s="77"/>
-      <c r="EU23" s="77"/>
-      <c r="EV23" s="77"/>
-      <c r="EW23" s="77"/>
-      <c r="EX23" s="77"/>
-      <c r="EY23" s="77"/>
-      <c r="EZ23" s="77"/>
-      <c r="FA23" s="77"/>
-      <c r="FB23" s="77"/>
-      <c r="FC23" s="77"/>
-      <c r="FD23" s="77"/>
-      <c r="FE23" s="77"/>
-      <c r="FF23" s="77"/>
-      <c r="FG23" s="77"/>
-      <c r="FH23" s="77"/>
-      <c r="FI23" s="77"/>
-      <c r="FJ23" s="77"/>
-      <c r="FK23" s="77"/>
-      <c r="FL23" s="77"/>
-      <c r="FM23" s="77"/>
-      <c r="FN23" s="77"/>
-      <c r="FO23" s="77"/>
-      <c r="FP23" s="77"/>
-      <c r="FQ23" s="78"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="82"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="82"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="82"/>
+      <c r="AW23" s="82"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="82"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="82"/>
+      <c r="BD23" s="82"/>
+      <c r="BE23" s="82"/>
+      <c r="BF23" s="82"/>
+      <c r="BG23" s="82"/>
+      <c r="BH23" s="82"/>
+      <c r="BI23" s="82"/>
+      <c r="BJ23" s="82"/>
+      <c r="BK23" s="82"/>
+      <c r="BL23" s="82"/>
+      <c r="BM23" s="82"/>
+      <c r="BN23" s="82"/>
+      <c r="BO23" s="82"/>
+      <c r="BP23" s="82"/>
+      <c r="BQ23" s="82"/>
+      <c r="BR23" s="82"/>
+      <c r="BS23" s="82"/>
+      <c r="BT23" s="82"/>
+      <c r="BU23" s="82"/>
+      <c r="BV23" s="82"/>
+      <c r="BW23" s="82"/>
+      <c r="BX23" s="82"/>
+      <c r="BY23" s="82"/>
+      <c r="BZ23" s="82"/>
+      <c r="CA23" s="82"/>
+      <c r="CB23" s="82"/>
+      <c r="CC23" s="82"/>
+      <c r="CD23" s="82"/>
+      <c r="CE23" s="82"/>
+      <c r="CF23" s="82"/>
+      <c r="CG23" s="82"/>
+      <c r="CH23" s="82"/>
+      <c r="CI23" s="82"/>
+      <c r="CJ23" s="82"/>
+      <c r="CK23" s="82"/>
+      <c r="CL23" s="82"/>
+      <c r="CM23" s="82"/>
+      <c r="CN23" s="82"/>
+      <c r="CO23" s="82"/>
+      <c r="CP23" s="82"/>
+      <c r="CQ23" s="82"/>
+      <c r="CR23" s="82"/>
+      <c r="CS23" s="82"/>
+      <c r="CT23" s="82"/>
+      <c r="CU23" s="82"/>
+      <c r="CV23" s="82"/>
+      <c r="CW23" s="82"/>
+      <c r="CX23" s="82"/>
+      <c r="CY23" s="82"/>
+      <c r="CZ23" s="82"/>
+      <c r="DA23" s="82"/>
+      <c r="DB23" s="82"/>
+      <c r="DC23" s="82"/>
+      <c r="DD23" s="82"/>
+      <c r="DE23" s="82"/>
+      <c r="DF23" s="82"/>
+      <c r="DG23" s="82"/>
+      <c r="DH23" s="82"/>
+      <c r="DI23" s="82"/>
+      <c r="DJ23" s="82"/>
+      <c r="DK23" s="82"/>
+      <c r="DL23" s="82"/>
+      <c r="DM23" s="82"/>
+      <c r="DN23" s="82"/>
+      <c r="DO23" s="82"/>
+      <c r="DP23" s="82"/>
+      <c r="DQ23" s="82"/>
+      <c r="DR23" s="82"/>
+      <c r="DS23" s="82"/>
+      <c r="DT23" s="82"/>
+      <c r="DU23" s="82"/>
+      <c r="DV23" s="82"/>
+      <c r="DW23" s="82"/>
+      <c r="DX23" s="82"/>
+      <c r="DY23" s="82"/>
+      <c r="DZ23" s="82"/>
+      <c r="EA23" s="82"/>
+      <c r="EB23" s="82"/>
+      <c r="EC23" s="82"/>
+      <c r="ED23" s="82"/>
+      <c r="EE23" s="82"/>
+      <c r="EF23" s="82"/>
+      <c r="EG23" s="82"/>
+      <c r="EH23" s="82"/>
+      <c r="EI23" s="82"/>
+      <c r="EJ23" s="82"/>
+      <c r="EK23" s="82"/>
+      <c r="EL23" s="82"/>
+      <c r="EM23" s="82"/>
+      <c r="EN23" s="82"/>
+      <c r="EO23" s="82"/>
+      <c r="EP23" s="82"/>
+      <c r="EQ23" s="82"/>
+      <c r="ER23" s="82"/>
+      <c r="ES23" s="82"/>
+      <c r="ET23" s="82"/>
+      <c r="EU23" s="82"/>
+      <c r="EV23" s="82"/>
+      <c r="EW23" s="82"/>
+      <c r="EX23" s="82"/>
+      <c r="EY23" s="82"/>
+      <c r="EZ23" s="82"/>
+      <c r="FA23" s="82"/>
+      <c r="FB23" s="82"/>
+      <c r="FC23" s="82"/>
+      <c r="FD23" s="82"/>
+      <c r="FE23" s="82"/>
+      <c r="FF23" s="82"/>
+      <c r="FG23" s="82"/>
+      <c r="FH23" s="82"/>
+      <c r="FI23" s="82"/>
+      <c r="FJ23" s="82"/>
+      <c r="FK23" s="82"/>
+      <c r="FL23" s="82"/>
+      <c r="FM23" s="82"/>
+      <c r="FN23" s="82"/>
+      <c r="FO23" s="82"/>
+      <c r="FP23" s="82"/>
+      <c r="FQ23" s="83"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="75"/>
-      <c r="J24" t="s" s="73">
-        <v>76</v>
+      <c r="A24" s="85"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
+      <c r="J24" t="s" s="78">
+        <v>78</v>
       </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="75"/>
-      <c r="P24" t="s" s="73">
-        <v>77</v>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="80"/>
+      <c r="P24" t="s" s="78">
+        <v>79</v>
       </c>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="77"/>
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="77"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="77"/>
-      <c r="AK24" s="77"/>
-      <c r="AL24" s="77"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="77"/>
-      <c r="AO24" s="77"/>
-      <c r="AP24" s="77"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="77"/>
-      <c r="AS24" s="77"/>
-      <c r="AT24" s="77"/>
-      <c r="AU24" s="77"/>
-      <c r="AV24" s="77"/>
-      <c r="AW24" s="77"/>
-      <c r="AX24" s="77"/>
-      <c r="AY24" s="77"/>
-      <c r="AZ24" s="77"/>
-      <c r="BA24" s="77"/>
-      <c r="BB24" s="77"/>
-      <c r="BC24" s="77"/>
-      <c r="BD24" s="77"/>
-      <c r="BE24" s="77"/>
-      <c r="BF24" s="77"/>
-      <c r="BG24" s="77"/>
-      <c r="BH24" s="77"/>
-      <c r="BI24" s="77"/>
-      <c r="BJ24" s="77"/>
-      <c r="BK24" s="77"/>
-      <c r="BL24" s="77"/>
-      <c r="BM24" s="77"/>
-      <c r="BN24" s="77"/>
-      <c r="BO24" s="77"/>
-      <c r="BP24" s="77"/>
-      <c r="BQ24" s="77"/>
-      <c r="BR24" s="77"/>
-      <c r="BS24" s="77"/>
-      <c r="BT24" s="77"/>
-      <c r="BU24" s="77"/>
-      <c r="BV24" s="77"/>
-      <c r="BW24" s="77"/>
-      <c r="BX24" s="77"/>
-      <c r="BY24" s="77"/>
-      <c r="BZ24" s="77"/>
-      <c r="CA24" s="77"/>
-      <c r="CB24" s="77"/>
-      <c r="CC24" s="77"/>
-      <c r="CD24" s="77"/>
-      <c r="CE24" s="77"/>
-      <c r="CF24" s="77"/>
-      <c r="CG24" s="77"/>
-      <c r="CH24" s="77"/>
-      <c r="CI24" s="77"/>
-      <c r="CJ24" s="77"/>
-      <c r="CK24" s="77"/>
-      <c r="CL24" s="77"/>
-      <c r="CM24" s="77"/>
-      <c r="CN24" s="77"/>
-      <c r="CO24" s="77"/>
-      <c r="CP24" s="77"/>
-      <c r="CQ24" s="77"/>
-      <c r="CR24" s="77"/>
-      <c r="CS24" s="77"/>
-      <c r="CT24" s="77"/>
-      <c r="CU24" s="77"/>
-      <c r="CV24" s="77"/>
-      <c r="CW24" s="77"/>
-      <c r="CX24" s="77"/>
-      <c r="CY24" s="77"/>
-      <c r="CZ24" s="77"/>
-      <c r="DA24" s="77"/>
-      <c r="DB24" s="77"/>
-      <c r="DC24" s="77"/>
-      <c r="DD24" s="77"/>
-      <c r="DE24" s="77"/>
-      <c r="DF24" s="77"/>
-      <c r="DG24" s="77"/>
-      <c r="DH24" s="77"/>
-      <c r="DI24" s="77"/>
-      <c r="DJ24" s="77"/>
-      <c r="DK24" s="77"/>
-      <c r="DL24" s="77"/>
-      <c r="DM24" s="77"/>
-      <c r="DN24" s="77"/>
-      <c r="DO24" s="77"/>
-      <c r="DP24" s="77"/>
-      <c r="DQ24" s="77"/>
-      <c r="DR24" s="77"/>
-      <c r="DS24" s="77"/>
-      <c r="DT24" s="77"/>
-      <c r="DU24" s="77"/>
-      <c r="DV24" s="77"/>
-      <c r="DW24" s="77"/>
-      <c r="DX24" s="77"/>
-      <c r="DY24" s="77"/>
-      <c r="DZ24" s="77"/>
-      <c r="EA24" s="77"/>
-      <c r="EB24" s="77"/>
-      <c r="EC24" s="77"/>
-      <c r="ED24" s="77"/>
-      <c r="EE24" s="77"/>
-      <c r="EF24" s="77"/>
-      <c r="EG24" s="77"/>
-      <c r="EH24" s="77"/>
-      <c r="EI24" s="77"/>
-      <c r="EJ24" s="77"/>
-      <c r="EK24" s="77"/>
-      <c r="EL24" s="77"/>
-      <c r="EM24" s="77"/>
-      <c r="EN24" s="77"/>
-      <c r="EO24" s="77"/>
-      <c r="EP24" s="77"/>
-      <c r="EQ24" s="77"/>
-      <c r="ER24" s="77"/>
-      <c r="ES24" s="77"/>
-      <c r="ET24" s="77"/>
-      <c r="EU24" s="77"/>
-      <c r="EV24" s="77"/>
-      <c r="EW24" s="77"/>
-      <c r="EX24" s="77"/>
-      <c r="EY24" s="77"/>
-      <c r="EZ24" s="77"/>
-      <c r="FA24" s="77"/>
-      <c r="FB24" s="77"/>
-      <c r="FC24" s="77"/>
-      <c r="FD24" s="77"/>
-      <c r="FE24" s="77"/>
-      <c r="FF24" s="77"/>
-      <c r="FG24" s="77"/>
-      <c r="FH24" s="77"/>
-      <c r="FI24" s="77"/>
-      <c r="FJ24" s="77"/>
-      <c r="FK24" s="77"/>
-      <c r="FL24" s="77"/>
-      <c r="FM24" s="77"/>
-      <c r="FN24" s="77"/>
-      <c r="FO24" s="77"/>
-      <c r="FP24" s="77"/>
-      <c r="FQ24" s="78"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="82"/>
+      <c r="AQ24" s="82"/>
+      <c r="AR24" s="82"/>
+      <c r="AS24" s="82"/>
+      <c r="AT24" s="82"/>
+      <c r="AU24" s="82"/>
+      <c r="AV24" s="82"/>
+      <c r="AW24" s="82"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="82"/>
+      <c r="BA24" s="82"/>
+      <c r="BB24" s="82"/>
+      <c r="BC24" s="82"/>
+      <c r="BD24" s="82"/>
+      <c r="BE24" s="82"/>
+      <c r="BF24" s="82"/>
+      <c r="BG24" s="82"/>
+      <c r="BH24" s="82"/>
+      <c r="BI24" s="82"/>
+      <c r="BJ24" s="82"/>
+      <c r="BK24" s="82"/>
+      <c r="BL24" s="82"/>
+      <c r="BM24" s="82"/>
+      <c r="BN24" s="82"/>
+      <c r="BO24" s="82"/>
+      <c r="BP24" s="82"/>
+      <c r="BQ24" s="82"/>
+      <c r="BR24" s="82"/>
+      <c r="BS24" s="82"/>
+      <c r="BT24" s="82"/>
+      <c r="BU24" s="82"/>
+      <c r="BV24" s="82"/>
+      <c r="BW24" s="82"/>
+      <c r="BX24" s="82"/>
+      <c r="BY24" s="82"/>
+      <c r="BZ24" s="82"/>
+      <c r="CA24" s="82"/>
+      <c r="CB24" s="82"/>
+      <c r="CC24" s="82"/>
+      <c r="CD24" s="82"/>
+      <c r="CE24" s="82"/>
+      <c r="CF24" s="82"/>
+      <c r="CG24" s="82"/>
+      <c r="CH24" s="82"/>
+      <c r="CI24" s="82"/>
+      <c r="CJ24" s="82"/>
+      <c r="CK24" s="82"/>
+      <c r="CL24" s="82"/>
+      <c r="CM24" s="82"/>
+      <c r="CN24" s="82"/>
+      <c r="CO24" s="82"/>
+      <c r="CP24" s="82"/>
+      <c r="CQ24" s="82"/>
+      <c r="CR24" s="82"/>
+      <c r="CS24" s="82"/>
+      <c r="CT24" s="82"/>
+      <c r="CU24" s="82"/>
+      <c r="CV24" s="82"/>
+      <c r="CW24" s="82"/>
+      <c r="CX24" s="82"/>
+      <c r="CY24" s="82"/>
+      <c r="CZ24" s="82"/>
+      <c r="DA24" s="82"/>
+      <c r="DB24" s="82"/>
+      <c r="DC24" s="82"/>
+      <c r="DD24" s="82"/>
+      <c r="DE24" s="82"/>
+      <c r="DF24" s="82"/>
+      <c r="DG24" s="82"/>
+      <c r="DH24" s="82"/>
+      <c r="DI24" s="82"/>
+      <c r="DJ24" s="82"/>
+      <c r="DK24" s="82"/>
+      <c r="DL24" s="82"/>
+      <c r="DM24" s="82"/>
+      <c r="DN24" s="82"/>
+      <c r="DO24" s="82"/>
+      <c r="DP24" s="82"/>
+      <c r="DQ24" s="82"/>
+      <c r="DR24" s="82"/>
+      <c r="DS24" s="82"/>
+      <c r="DT24" s="82"/>
+      <c r="DU24" s="82"/>
+      <c r="DV24" s="82"/>
+      <c r="DW24" s="82"/>
+      <c r="DX24" s="82"/>
+      <c r="DY24" s="82"/>
+      <c r="DZ24" s="82"/>
+      <c r="EA24" s="82"/>
+      <c r="EB24" s="82"/>
+      <c r="EC24" s="82"/>
+      <c r="ED24" s="82"/>
+      <c r="EE24" s="82"/>
+      <c r="EF24" s="82"/>
+      <c r="EG24" s="82"/>
+      <c r="EH24" s="82"/>
+      <c r="EI24" s="82"/>
+      <c r="EJ24" s="82"/>
+      <c r="EK24" s="82"/>
+      <c r="EL24" s="82"/>
+      <c r="EM24" s="82"/>
+      <c r="EN24" s="82"/>
+      <c r="EO24" s="82"/>
+      <c r="EP24" s="82"/>
+      <c r="EQ24" s="82"/>
+      <c r="ER24" s="82"/>
+      <c r="ES24" s="82"/>
+      <c r="ET24" s="82"/>
+      <c r="EU24" s="82"/>
+      <c r="EV24" s="82"/>
+      <c r="EW24" s="82"/>
+      <c r="EX24" s="82"/>
+      <c r="EY24" s="82"/>
+      <c r="EZ24" s="82"/>
+      <c r="FA24" s="82"/>
+      <c r="FB24" s="82"/>
+      <c r="FC24" s="82"/>
+      <c r="FD24" s="82"/>
+      <c r="FE24" s="82"/>
+      <c r="FF24" s="82"/>
+      <c r="FG24" s="82"/>
+      <c r="FH24" s="82"/>
+      <c r="FI24" s="82"/>
+      <c r="FJ24" s="82"/>
+      <c r="FK24" s="82"/>
+      <c r="FL24" s="82"/>
+      <c r="FM24" s="82"/>
+      <c r="FN24" s="82"/>
+      <c r="FO24" s="82"/>
+      <c r="FP24" s="82"/>
+      <c r="FQ24" s="83"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="75"/>
-      <c r="J25" t="s" s="73">
-        <v>78</v>
+      <c r="A25" s="85"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="80"/>
+      <c r="J25" t="s" s="78">
+        <v>80</v>
       </c>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="75"/>
-      <c r="P25" t="s" s="73">
-        <v>79</v>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="80"/>
+      <c r="P25" t="s" s="78">
+        <v>81</v>
       </c>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="76"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="77"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="77"/>
-      <c r="AU25" s="77"/>
-      <c r="AV25" s="77"/>
-      <c r="AW25" s="77"/>
-      <c r="AX25" s="77"/>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="77"/>
-      <c r="BA25" s="77"/>
-      <c r="BB25" s="77"/>
-      <c r="BC25" s="77"/>
-      <c r="BD25" s="77"/>
-      <c r="BE25" s="77"/>
-      <c r="BF25" s="77"/>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="77"/>
-      <c r="BI25" s="77"/>
-      <c r="BJ25" s="77"/>
-      <c r="BK25" s="77"/>
-      <c r="BL25" s="77"/>
-      <c r="BM25" s="77"/>
-      <c r="BN25" s="77"/>
-      <c r="BO25" s="77"/>
-      <c r="BP25" s="77"/>
-      <c r="BQ25" s="77"/>
-      <c r="BR25" s="77"/>
-      <c r="BS25" s="77"/>
-      <c r="BT25" s="77"/>
-      <c r="BU25" s="77"/>
-      <c r="BV25" s="77"/>
-      <c r="BW25" s="77"/>
-      <c r="BX25" s="77"/>
-      <c r="BY25" s="77"/>
-      <c r="BZ25" s="77"/>
-      <c r="CA25" s="77"/>
-      <c r="CB25" s="77"/>
-      <c r="CC25" s="77"/>
-      <c r="CD25" s="77"/>
-      <c r="CE25" s="77"/>
-      <c r="CF25" s="77"/>
-      <c r="CG25" s="77"/>
-      <c r="CH25" s="77"/>
-      <c r="CI25" s="77"/>
-      <c r="CJ25" s="77"/>
-      <c r="CK25" s="77"/>
-      <c r="CL25" s="77"/>
-      <c r="CM25" s="77"/>
-      <c r="CN25" s="77"/>
-      <c r="CO25" s="77"/>
-      <c r="CP25" s="77"/>
-      <c r="CQ25" s="77"/>
-      <c r="CR25" s="77"/>
-      <c r="CS25" s="77"/>
-      <c r="CT25" s="77"/>
-      <c r="CU25" s="77"/>
-      <c r="CV25" s="77"/>
-      <c r="CW25" s="77"/>
-      <c r="CX25" s="77"/>
-      <c r="CY25" s="77"/>
-      <c r="CZ25" s="77"/>
-      <c r="DA25" s="77"/>
-      <c r="DB25" s="77"/>
-      <c r="DC25" s="77"/>
-      <c r="DD25" s="77"/>
-      <c r="DE25" s="77"/>
-      <c r="DF25" s="77"/>
-      <c r="DG25" s="77"/>
-      <c r="DH25" s="77"/>
-      <c r="DI25" s="77"/>
-      <c r="DJ25" s="77"/>
-      <c r="DK25" s="77"/>
-      <c r="DL25" s="77"/>
-      <c r="DM25" s="77"/>
-      <c r="DN25" s="77"/>
-      <c r="DO25" s="77"/>
-      <c r="DP25" s="77"/>
-      <c r="DQ25" s="77"/>
-      <c r="DR25" s="77"/>
-      <c r="DS25" s="77"/>
-      <c r="DT25" s="77"/>
-      <c r="DU25" s="77"/>
-      <c r="DV25" s="77"/>
-      <c r="DW25" s="77"/>
-      <c r="DX25" s="77"/>
-      <c r="DY25" s="77"/>
-      <c r="DZ25" s="77"/>
-      <c r="EA25" s="77"/>
-      <c r="EB25" s="77"/>
-      <c r="EC25" s="77"/>
-      <c r="ED25" s="77"/>
-      <c r="EE25" s="77"/>
-      <c r="EF25" s="77"/>
-      <c r="EG25" s="77"/>
-      <c r="EH25" s="77"/>
-      <c r="EI25" s="77"/>
-      <c r="EJ25" s="77"/>
-      <c r="EK25" s="77"/>
-      <c r="EL25" s="77"/>
-      <c r="EM25" s="77"/>
-      <c r="EN25" s="77"/>
-      <c r="EO25" s="77"/>
-      <c r="EP25" s="77"/>
-      <c r="EQ25" s="77"/>
-      <c r="ER25" s="77"/>
-      <c r="ES25" s="77"/>
-      <c r="ET25" s="77"/>
-      <c r="EU25" s="77"/>
-      <c r="EV25" s="77"/>
-      <c r="EW25" s="77"/>
-      <c r="EX25" s="77"/>
-      <c r="EY25" s="77"/>
-      <c r="EZ25" s="77"/>
-      <c r="FA25" s="77"/>
-      <c r="FB25" s="77"/>
-      <c r="FC25" s="77"/>
-      <c r="FD25" s="77"/>
-      <c r="FE25" s="77"/>
-      <c r="FF25" s="77"/>
-      <c r="FG25" s="77"/>
-      <c r="FH25" s="77"/>
-      <c r="FI25" s="77"/>
-      <c r="FJ25" s="77"/>
-      <c r="FK25" s="77"/>
-      <c r="FL25" s="77"/>
-      <c r="FM25" s="77"/>
-      <c r="FN25" s="77"/>
-      <c r="FO25" s="77"/>
-      <c r="FP25" s="77"/>
-      <c r="FQ25" s="78"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="80"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="82"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="82"/>
+      <c r="AP25" s="82"/>
+      <c r="AQ25" s="82"/>
+      <c r="AR25" s="82"/>
+      <c r="AS25" s="82"/>
+      <c r="AT25" s="82"/>
+      <c r="AU25" s="82"/>
+      <c r="AV25" s="82"/>
+      <c r="AW25" s="82"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="82"/>
+      <c r="BA25" s="82"/>
+      <c r="BB25" s="82"/>
+      <c r="BC25" s="82"/>
+      <c r="BD25" s="82"/>
+      <c r="BE25" s="82"/>
+      <c r="BF25" s="82"/>
+      <c r="BG25" s="82"/>
+      <c r="BH25" s="82"/>
+      <c r="BI25" s="82"/>
+      <c r="BJ25" s="82"/>
+      <c r="BK25" s="82"/>
+      <c r="BL25" s="82"/>
+      <c r="BM25" s="82"/>
+      <c r="BN25" s="82"/>
+      <c r="BO25" s="82"/>
+      <c r="BP25" s="82"/>
+      <c r="BQ25" s="82"/>
+      <c r="BR25" s="82"/>
+      <c r="BS25" s="82"/>
+      <c r="BT25" s="82"/>
+      <c r="BU25" s="82"/>
+      <c r="BV25" s="82"/>
+      <c r="BW25" s="82"/>
+      <c r="BX25" s="82"/>
+      <c r="BY25" s="82"/>
+      <c r="BZ25" s="82"/>
+      <c r="CA25" s="82"/>
+      <c r="CB25" s="82"/>
+      <c r="CC25" s="82"/>
+      <c r="CD25" s="82"/>
+      <c r="CE25" s="82"/>
+      <c r="CF25" s="82"/>
+      <c r="CG25" s="82"/>
+      <c r="CH25" s="82"/>
+      <c r="CI25" s="82"/>
+      <c r="CJ25" s="82"/>
+      <c r="CK25" s="82"/>
+      <c r="CL25" s="82"/>
+      <c r="CM25" s="82"/>
+      <c r="CN25" s="82"/>
+      <c r="CO25" s="82"/>
+      <c r="CP25" s="82"/>
+      <c r="CQ25" s="82"/>
+      <c r="CR25" s="82"/>
+      <c r="CS25" s="82"/>
+      <c r="CT25" s="82"/>
+      <c r="CU25" s="82"/>
+      <c r="CV25" s="82"/>
+      <c r="CW25" s="82"/>
+      <c r="CX25" s="82"/>
+      <c r="CY25" s="82"/>
+      <c r="CZ25" s="82"/>
+      <c r="DA25" s="82"/>
+      <c r="DB25" s="82"/>
+      <c r="DC25" s="82"/>
+      <c r="DD25" s="82"/>
+      <c r="DE25" s="82"/>
+      <c r="DF25" s="82"/>
+      <c r="DG25" s="82"/>
+      <c r="DH25" s="82"/>
+      <c r="DI25" s="82"/>
+      <c r="DJ25" s="82"/>
+      <c r="DK25" s="82"/>
+      <c r="DL25" s="82"/>
+      <c r="DM25" s="82"/>
+      <c r="DN25" s="82"/>
+      <c r="DO25" s="82"/>
+      <c r="DP25" s="82"/>
+      <c r="DQ25" s="82"/>
+      <c r="DR25" s="82"/>
+      <c r="DS25" s="82"/>
+      <c r="DT25" s="82"/>
+      <c r="DU25" s="82"/>
+      <c r="DV25" s="82"/>
+      <c r="DW25" s="82"/>
+      <c r="DX25" s="82"/>
+      <c r="DY25" s="82"/>
+      <c r="DZ25" s="82"/>
+      <c r="EA25" s="82"/>
+      <c r="EB25" s="82"/>
+      <c r="EC25" s="82"/>
+      <c r="ED25" s="82"/>
+      <c r="EE25" s="82"/>
+      <c r="EF25" s="82"/>
+      <c r="EG25" s="82"/>
+      <c r="EH25" s="82"/>
+      <c r="EI25" s="82"/>
+      <c r="EJ25" s="82"/>
+      <c r="EK25" s="82"/>
+      <c r="EL25" s="82"/>
+      <c r="EM25" s="82"/>
+      <c r="EN25" s="82"/>
+      <c r="EO25" s="82"/>
+      <c r="EP25" s="82"/>
+      <c r="EQ25" s="82"/>
+      <c r="ER25" s="82"/>
+      <c r="ES25" s="82"/>
+      <c r="ET25" s="82"/>
+      <c r="EU25" s="82"/>
+      <c r="EV25" s="82"/>
+      <c r="EW25" s="82"/>
+      <c r="EX25" s="82"/>
+      <c r="EY25" s="82"/>
+      <c r="EZ25" s="82"/>
+      <c r="FA25" s="82"/>
+      <c r="FB25" s="82"/>
+      <c r="FC25" s="82"/>
+      <c r="FD25" s="82"/>
+      <c r="FE25" s="82"/>
+      <c r="FF25" s="82"/>
+      <c r="FG25" s="82"/>
+      <c r="FH25" s="82"/>
+      <c r="FI25" s="82"/>
+      <c r="FJ25" s="82"/>
+      <c r="FK25" s="82"/>
+      <c r="FL25" s="82"/>
+      <c r="FM25" s="82"/>
+      <c r="FN25" s="82"/>
+      <c r="FO25" s="82"/>
+      <c r="FP25" s="82"/>
+      <c r="FQ25" s="83"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="48"/>
@@ -14581,7 +14631,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" t="s" s="42">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -14589,7 +14639,7 @@
       <c r="N26" s="24"/>
       <c r="O26" s="25"/>
       <c r="P26" t="s" s="42">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
@@ -14604,8 +14654,8 @@
       <c r="AA26" s="24"/>
       <c r="AB26" s="24"/>
       <c r="AC26" s="25"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="15"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="14"/>
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
@@ -14751,20 +14801,20 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" t="s" s="42">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
       <c r="F27" t="s" s="42">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
       <c r="J27" t="s" s="42">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
@@ -14772,7 +14822,7 @@
       <c r="N27" s="24"/>
       <c r="O27" s="25"/>
       <c r="P27" t="s" s="42">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
@@ -14787,8 +14837,8 @@
       <c r="AA27" s="24"/>
       <c r="AB27" s="24"/>
       <c r="AC27" s="25"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="15"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="14"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="15"/>
@@ -14933,22 +14983,30 @@
       <c r="FQ27" s="18"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" t="s" s="42">
+        <v>86</v>
+      </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="48"/>
+      <c r="F28" t="s" s="42">
+        <v>87</v>
+      </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="48"/>
+      <c r="J28" t="s" s="42">
+        <v>88</v>
+      </c>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
       <c r="O28" s="25"/>
-      <c r="P28" s="48"/>
+      <c r="P28" t="s" s="42">
+        <v>89</v>
+      </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
@@ -14962,8 +15020,10 @@
       <c r="AA28" s="24"/>
       <c r="AB28" s="24"/>
       <c r="AC28" s="25"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="15"/>
+      <c r="AD28" s="86">
+        <v>45168</v>
+      </c>
+      <c r="AE28" s="14"/>
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
@@ -15117,13 +15177,17 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="48"/>
+      <c r="J29" t="s" s="42">
+        <v>90</v>
+      </c>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
       <c r="O29" s="25"/>
-      <c r="P29" s="48"/>
+      <c r="P29" t="s" s="42">
+        <v>91</v>
+      </c>
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
       <c r="S29" s="24"/>
@@ -15137,150 +15201,327 @@
       <c r="AA29" s="24"/>
       <c r="AB29" s="24"/>
       <c r="AC29" s="25"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="52"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="52"/>
-      <c r="AO29" s="52"/>
-      <c r="AP29" s="52"/>
-      <c r="AQ29" s="52"/>
-      <c r="AR29" s="52"/>
-      <c r="AS29" s="52"/>
-      <c r="AT29" s="52"/>
-      <c r="AU29" s="52"/>
-      <c r="AV29" s="52"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="52"/>
-      <c r="AY29" s="52"/>
-      <c r="AZ29" s="52"/>
-      <c r="BA29" s="52"/>
-      <c r="BB29" s="52"/>
-      <c r="BC29" s="52"/>
-      <c r="BD29" s="52"/>
-      <c r="BE29" s="52"/>
-      <c r="BF29" s="52"/>
-      <c r="BG29" s="52"/>
-      <c r="BH29" s="52"/>
-      <c r="BI29" s="52"/>
-      <c r="BJ29" s="52"/>
-      <c r="BK29" s="52"/>
-      <c r="BL29" s="52"/>
-      <c r="BM29" s="52"/>
-      <c r="BN29" s="52"/>
-      <c r="BO29" s="52"/>
-      <c r="BP29" s="52"/>
-      <c r="BQ29" s="52"/>
-      <c r="BR29" s="52"/>
-      <c r="BS29" s="52"/>
-      <c r="BT29" s="52"/>
-      <c r="BU29" s="52"/>
-      <c r="BV29" s="52"/>
-      <c r="BW29" s="52"/>
-      <c r="BX29" s="52"/>
-      <c r="BY29" s="52"/>
-      <c r="BZ29" s="52"/>
-      <c r="CA29" s="52"/>
-      <c r="CB29" s="52"/>
-      <c r="CC29" s="52"/>
-      <c r="CD29" s="52"/>
-      <c r="CE29" s="52"/>
-      <c r="CF29" s="52"/>
-      <c r="CG29" s="52"/>
-      <c r="CH29" s="52"/>
-      <c r="CI29" s="52"/>
-      <c r="CJ29" s="52"/>
-      <c r="CK29" s="52"/>
-      <c r="CL29" s="52"/>
-      <c r="CM29" s="52"/>
-      <c r="CN29" s="52"/>
-      <c r="CO29" s="52"/>
-      <c r="CP29" s="52"/>
-      <c r="CQ29" s="52"/>
-      <c r="CR29" s="52"/>
-      <c r="CS29" s="52"/>
-      <c r="CT29" s="52"/>
-      <c r="CU29" s="52"/>
-      <c r="CV29" s="52"/>
-      <c r="CW29" s="52"/>
-      <c r="CX29" s="52"/>
-      <c r="CY29" s="52"/>
-      <c r="CZ29" s="52"/>
-      <c r="DA29" s="52"/>
-      <c r="DB29" s="52"/>
-      <c r="DC29" s="52"/>
-      <c r="DD29" s="52"/>
-      <c r="DE29" s="52"/>
-      <c r="DF29" s="52"/>
-      <c r="DG29" s="52"/>
-      <c r="DH29" s="52"/>
-      <c r="DI29" s="52"/>
-      <c r="DJ29" s="52"/>
-      <c r="DK29" s="52"/>
-      <c r="DL29" s="52"/>
-      <c r="DM29" s="52"/>
-      <c r="DN29" s="52"/>
-      <c r="DO29" s="52"/>
-      <c r="DP29" s="52"/>
-      <c r="DQ29" s="52"/>
-      <c r="DR29" s="52"/>
-      <c r="DS29" s="52"/>
-      <c r="DT29" s="52"/>
-      <c r="DU29" s="52"/>
-      <c r="DV29" s="52"/>
-      <c r="DW29" s="52"/>
-      <c r="DX29" s="52"/>
-      <c r="DY29" s="52"/>
-      <c r="DZ29" s="52"/>
-      <c r="EA29" s="52"/>
-      <c r="EB29" s="52"/>
-      <c r="EC29" s="52"/>
-      <c r="ED29" s="52"/>
-      <c r="EE29" s="52"/>
-      <c r="EF29" s="52"/>
-      <c r="EG29" s="52"/>
-      <c r="EH29" s="52"/>
-      <c r="EI29" s="52"/>
-      <c r="EJ29" s="52"/>
-      <c r="EK29" s="52"/>
-      <c r="EL29" s="52"/>
-      <c r="EM29" s="52"/>
-      <c r="EN29" s="52"/>
-      <c r="EO29" s="52"/>
-      <c r="EP29" s="52"/>
-      <c r="EQ29" s="52"/>
-      <c r="ER29" s="52"/>
-      <c r="ES29" s="52"/>
-      <c r="ET29" s="52"/>
-      <c r="EU29" s="52"/>
-      <c r="EV29" s="52"/>
-      <c r="EW29" s="52"/>
-      <c r="EX29" s="52"/>
-      <c r="EY29" s="52"/>
-      <c r="EZ29" s="52"/>
-      <c r="FA29" s="52"/>
-      <c r="FB29" s="52"/>
-      <c r="FC29" s="52"/>
-      <c r="FD29" s="52"/>
-      <c r="FE29" s="52"/>
-      <c r="FF29" s="52"/>
-      <c r="FG29" s="52"/>
-      <c r="FH29" s="52"/>
-      <c r="FI29" s="52"/>
-      <c r="FJ29" s="52"/>
-      <c r="FK29" s="52"/>
-      <c r="FL29" s="52"/>
-      <c r="FM29" s="52"/>
-      <c r="FN29" s="52"/>
-      <c r="FO29" s="52"/>
-      <c r="FP29" s="52"/>
-      <c r="FQ29" s="53"/>
+      <c r="AD29" s="86">
+        <v>45168</v>
+      </c>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="15"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="15"/>
+      <c r="BM29" s="15"/>
+      <c r="BN29" s="15"/>
+      <c r="BO29" s="15"/>
+      <c r="BP29" s="15"/>
+      <c r="BQ29" s="15"/>
+      <c r="BR29" s="15"/>
+      <c r="BS29" s="15"/>
+      <c r="BT29" s="15"/>
+      <c r="BU29" s="15"/>
+      <c r="BV29" s="15"/>
+      <c r="BW29" s="15"/>
+      <c r="BX29" s="15"/>
+      <c r="BY29" s="15"/>
+      <c r="BZ29" s="15"/>
+      <c r="CA29" s="15"/>
+      <c r="CB29" s="15"/>
+      <c r="CC29" s="15"/>
+      <c r="CD29" s="15"/>
+      <c r="CE29" s="15"/>
+      <c r="CF29" s="15"/>
+      <c r="CG29" s="15"/>
+      <c r="CH29" s="15"/>
+      <c r="CI29" s="15"/>
+      <c r="CJ29" s="15"/>
+      <c r="CK29" s="15"/>
+      <c r="CL29" s="15"/>
+      <c r="CM29" s="15"/>
+      <c r="CN29" s="15"/>
+      <c r="CO29" s="15"/>
+      <c r="CP29" s="15"/>
+      <c r="CQ29" s="15"/>
+      <c r="CR29" s="15"/>
+      <c r="CS29" s="15"/>
+      <c r="CT29" s="15"/>
+      <c r="CU29" s="15"/>
+      <c r="CV29" s="15"/>
+      <c r="CW29" s="15"/>
+      <c r="CX29" s="15"/>
+      <c r="CY29" s="15"/>
+      <c r="CZ29" s="15"/>
+      <c r="DA29" s="15"/>
+      <c r="DB29" s="15"/>
+      <c r="DC29" s="15"/>
+      <c r="DD29" s="15"/>
+      <c r="DE29" s="15"/>
+      <c r="DF29" s="15"/>
+      <c r="DG29" s="15"/>
+      <c r="DH29" s="15"/>
+      <c r="DI29" s="15"/>
+      <c r="DJ29" s="15"/>
+      <c r="DK29" s="15"/>
+      <c r="DL29" s="15"/>
+      <c r="DM29" s="15"/>
+      <c r="DN29" s="15"/>
+      <c r="DO29" s="15"/>
+      <c r="DP29" s="15"/>
+      <c r="DQ29" s="15"/>
+      <c r="DR29" s="15"/>
+      <c r="DS29" s="15"/>
+      <c r="DT29" s="15"/>
+      <c r="DU29" s="15"/>
+      <c r="DV29" s="15"/>
+      <c r="DW29" s="15"/>
+      <c r="DX29" s="15"/>
+      <c r="DY29" s="15"/>
+      <c r="DZ29" s="15"/>
+      <c r="EA29" s="15"/>
+      <c r="EB29" s="15"/>
+      <c r="EC29" s="15"/>
+      <c r="ED29" s="15"/>
+      <c r="EE29" s="15"/>
+      <c r="EF29" s="15"/>
+      <c r="EG29" s="15"/>
+      <c r="EH29" s="15"/>
+      <c r="EI29" s="15"/>
+      <c r="EJ29" s="15"/>
+      <c r="EK29" s="15"/>
+      <c r="EL29" s="15"/>
+      <c r="EM29" s="15"/>
+      <c r="EN29" s="15"/>
+      <c r="EO29" s="15"/>
+      <c r="EP29" s="15"/>
+      <c r="EQ29" s="15"/>
+      <c r="ER29" s="15"/>
+      <c r="ES29" s="15"/>
+      <c r="ET29" s="15"/>
+      <c r="EU29" s="15"/>
+      <c r="EV29" s="15"/>
+      <c r="EW29" s="15"/>
+      <c r="EX29" s="15"/>
+      <c r="EY29" s="15"/>
+      <c r="EZ29" s="15"/>
+      <c r="FA29" s="15"/>
+      <c r="FB29" s="15"/>
+      <c r="FC29" s="15"/>
+      <c r="FD29" s="15"/>
+      <c r="FE29" s="15"/>
+      <c r="FF29" s="15"/>
+      <c r="FG29" s="15"/>
+      <c r="FH29" s="15"/>
+      <c r="FI29" s="15"/>
+      <c r="FJ29" s="15"/>
+      <c r="FK29" s="15"/>
+      <c r="FL29" s="15"/>
+      <c r="FM29" s="15"/>
+      <c r="FN29" s="15"/>
+      <c r="FO29" s="15"/>
+      <c r="FP29" s="15"/>
+      <c r="FQ29" s="18"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="48"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="54"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="54"/>
+      <c r="AU30" s="54"/>
+      <c r="AV30" s="54"/>
+      <c r="AW30" s="54"/>
+      <c r="AX30" s="54"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="54"/>
+      <c r="BB30" s="54"/>
+      <c r="BC30" s="54"/>
+      <c r="BD30" s="54"/>
+      <c r="BE30" s="54"/>
+      <c r="BF30" s="54"/>
+      <c r="BG30" s="54"/>
+      <c r="BH30" s="54"/>
+      <c r="BI30" s="54"/>
+      <c r="BJ30" s="54"/>
+      <c r="BK30" s="54"/>
+      <c r="BL30" s="54"/>
+      <c r="BM30" s="54"/>
+      <c r="BN30" s="54"/>
+      <c r="BO30" s="54"/>
+      <c r="BP30" s="54"/>
+      <c r="BQ30" s="54"/>
+      <c r="BR30" s="54"/>
+      <c r="BS30" s="54"/>
+      <c r="BT30" s="54"/>
+      <c r="BU30" s="54"/>
+      <c r="BV30" s="54"/>
+      <c r="BW30" s="54"/>
+      <c r="BX30" s="54"/>
+      <c r="BY30" s="54"/>
+      <c r="BZ30" s="54"/>
+      <c r="CA30" s="54"/>
+      <c r="CB30" s="54"/>
+      <c r="CC30" s="54"/>
+      <c r="CD30" s="54"/>
+      <c r="CE30" s="54"/>
+      <c r="CF30" s="54"/>
+      <c r="CG30" s="54"/>
+      <c r="CH30" s="54"/>
+      <c r="CI30" s="54"/>
+      <c r="CJ30" s="54"/>
+      <c r="CK30" s="54"/>
+      <c r="CL30" s="54"/>
+      <c r="CM30" s="54"/>
+      <c r="CN30" s="54"/>
+      <c r="CO30" s="54"/>
+      <c r="CP30" s="54"/>
+      <c r="CQ30" s="54"/>
+      <c r="CR30" s="54"/>
+      <c r="CS30" s="54"/>
+      <c r="CT30" s="54"/>
+      <c r="CU30" s="54"/>
+      <c r="CV30" s="54"/>
+      <c r="CW30" s="54"/>
+      <c r="CX30" s="54"/>
+      <c r="CY30" s="54"/>
+      <c r="CZ30" s="54"/>
+      <c r="DA30" s="54"/>
+      <c r="DB30" s="54"/>
+      <c r="DC30" s="54"/>
+      <c r="DD30" s="54"/>
+      <c r="DE30" s="54"/>
+      <c r="DF30" s="54"/>
+      <c r="DG30" s="54"/>
+      <c r="DH30" s="54"/>
+      <c r="DI30" s="54"/>
+      <c r="DJ30" s="54"/>
+      <c r="DK30" s="54"/>
+      <c r="DL30" s="54"/>
+      <c r="DM30" s="54"/>
+      <c r="DN30" s="54"/>
+      <c r="DO30" s="54"/>
+      <c r="DP30" s="54"/>
+      <c r="DQ30" s="54"/>
+      <c r="DR30" s="54"/>
+      <c r="DS30" s="54"/>
+      <c r="DT30" s="54"/>
+      <c r="DU30" s="54"/>
+      <c r="DV30" s="54"/>
+      <c r="DW30" s="54"/>
+      <c r="DX30" s="54"/>
+      <c r="DY30" s="54"/>
+      <c r="DZ30" s="54"/>
+      <c r="EA30" s="54"/>
+      <c r="EB30" s="54"/>
+      <c r="EC30" s="54"/>
+      <c r="ED30" s="54"/>
+      <c r="EE30" s="54"/>
+      <c r="EF30" s="54"/>
+      <c r="EG30" s="54"/>
+      <c r="EH30" s="54"/>
+      <c r="EI30" s="54"/>
+      <c r="EJ30" s="54"/>
+      <c r="EK30" s="54"/>
+      <c r="EL30" s="54"/>
+      <c r="EM30" s="54"/>
+      <c r="EN30" s="54"/>
+      <c r="EO30" s="54"/>
+      <c r="EP30" s="54"/>
+      <c r="EQ30" s="54"/>
+      <c r="ER30" s="54"/>
+      <c r="ES30" s="54"/>
+      <c r="ET30" s="54"/>
+      <c r="EU30" s="54"/>
+      <c r="EV30" s="54"/>
+      <c r="EW30" s="54"/>
+      <c r="EX30" s="54"/>
+      <c r="EY30" s="54"/>
+      <c r="EZ30" s="54"/>
+      <c r="FA30" s="54"/>
+      <c r="FB30" s="54"/>
+      <c r="FC30" s="54"/>
+      <c r="FD30" s="54"/>
+      <c r="FE30" s="54"/>
+      <c r="FF30" s="54"/>
+      <c r="FG30" s="54"/>
+      <c r="FH30" s="54"/>
+      <c r="FI30" s="54"/>
+      <c r="FJ30" s="54"/>
+      <c r="FK30" s="54"/>
+      <c r="FL30" s="54"/>
+      <c r="FM30" s="54"/>
+      <c r="FN30" s="54"/>
+      <c r="FO30" s="54"/>
+      <c r="FP30" s="54"/>
+      <c r="FQ30" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/kihon_s/kinouitiran_s.xlsx
+++ b/kihon_s/kinouitiran_s.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>機能追加（list)</t>
+  </si>
+  <si>
+    <t>機能追加（受注BOX)</t>
   </si>
   <si>
     <t>※グレーになっているところは将来的にできるようになりたい部分</t>
@@ -290,6 +293,15 @@
   </si>
   <si>
     <t>管理者画面で登録情報を検索できる</t>
+  </si>
+  <si>
+    <t>受注BOX</t>
+  </si>
+  <si>
+    <t>購入内容と受注者の確認機能</t>
+  </si>
+  <si>
+    <t>管理者画面で受注情報を確認できる</t>
   </si>
 </sst>
 </file>
@@ -703,7 +715,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -959,7 +971,25 @@
     <xf numFmtId="49" fontId="14" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -7225,11 +7255,15 @@
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="48"/>
+      <c r="F28" s="44">
+        <v>45173</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
+      <c r="J28" t="s" s="42">
+        <v>21</v>
+      </c>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
@@ -10068,13 +10102,14 @@
       <c r="FT43" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="L17:U19"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F9:Q10"/>
     <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
   </mergeCells>
   <pageMargins left="0.393701" right="0.393701" top="0.590551" bottom="0.393701" header="0.511811" footer="0.314961"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="95" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -10087,7 +10122,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:FQ30"/>
+  <dimension ref="A1:FQ33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -10287,7 +10322,7 @@
       <c r="D2" s="61"/>
       <c r="E2" s="62"/>
       <c r="F2" t="s" s="60">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -10309,15 +10344,15 @@
       <c r="X2" s="24"/>
       <c r="Y2" s="25"/>
       <c r="Z2" t="s" s="60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA2" s="62"/>
       <c r="AB2" t="s" s="63">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC2" s="64"/>
       <c r="AD2" t="s" s="65">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE2" s="14"/>
       <c r="AF2" s="15"/>
@@ -10465,7 +10500,7 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" t="s" s="66">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -10492,7 +10527,7 @@
       <c r="X3" s="61"/>
       <c r="Y3" s="62"/>
       <c r="Z3" t="s" s="63">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA3" s="64"/>
       <c r="AB3" t="s" s="63">
@@ -10646,20 +10681,20 @@
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" t="s" s="71">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="73"/>
       <c r="F4" t="s" s="74">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="75"/>
       <c r="H4" s="75"/>
       <c r="I4" s="76"/>
       <c r="J4" t="s" s="74">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="75"/>
       <c r="L4" s="75"/>
@@ -10667,7 +10702,7 @@
       <c r="N4" s="75"/>
       <c r="O4" s="76"/>
       <c r="P4" t="s" s="74">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="75"/>
       <c r="R4" s="75"/>
@@ -10829,20 +10864,20 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" t="s" s="42">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" t="s" s="77">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="25"/>
       <c r="J5" t="s" s="42">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -10850,7 +10885,7 @@
       <c r="N5" s="24"/>
       <c r="O5" s="25"/>
       <c r="P5" t="s" s="42">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
@@ -11021,7 +11056,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
       <c r="J6" t="s" s="42">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
@@ -11029,7 +11064,7 @@
       <c r="N6" s="24"/>
       <c r="O6" s="25"/>
       <c r="P6" t="s" s="42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
@@ -11200,7 +11235,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="25"/>
       <c r="J7" t="s" s="42">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -11208,7 +11243,7 @@
       <c r="N7" s="24"/>
       <c r="O7" s="25"/>
       <c r="P7" t="s" s="42">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
@@ -11370,20 +11405,20 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" t="s" s="42">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" t="s" s="21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="25"/>
       <c r="J8" t="s" s="42">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -11391,7 +11426,7 @@
       <c r="N8" s="24"/>
       <c r="O8" s="25"/>
       <c r="P8" t="s" s="42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
@@ -11562,7 +11597,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
       <c r="J9" t="s" s="42">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -11570,7 +11605,7 @@
       <c r="N9" s="24"/>
       <c r="O9" s="25"/>
       <c r="P9" t="s" s="42">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
@@ -11732,20 +11767,20 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" t="s" s="42">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" t="s" s="42">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
       <c r="J10" t="s" s="42">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -11753,7 +11788,7 @@
       <c r="N10" s="24"/>
       <c r="O10" s="25"/>
       <c r="P10" t="s" s="42">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
@@ -11924,7 +11959,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
       <c r="J11" t="s" s="42">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
@@ -11932,7 +11967,7 @@
       <c r="N11" s="24"/>
       <c r="O11" s="25"/>
       <c r="P11" t="s" s="42">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
@@ -12103,7 +12138,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
       <c r="J12" t="s" s="42">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
@@ -12111,7 +12146,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="25"/>
       <c r="P12" t="s" s="42">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
@@ -12273,20 +12308,20 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s" s="42">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" t="s" s="42">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
       <c r="J13" t="s" s="42">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -12294,7 +12329,7 @@
       <c r="N13" s="24"/>
       <c r="O13" s="25"/>
       <c r="P13" t="s" s="42">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
@@ -12461,13 +12496,13 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" t="s" s="42">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
       <c r="J14" t="s" s="42">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -12475,7 +12510,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="25"/>
       <c r="P14" t="s" s="42">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -12637,20 +12672,20 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" t="s" s="78">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="79"/>
       <c r="C15" s="79"/>
       <c r="D15" s="79"/>
       <c r="E15" s="80"/>
       <c r="F15" t="s" s="78">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
       <c r="I15" s="80"/>
       <c r="J15" t="s" s="78">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="79"/>
       <c r="L15" s="79"/>
@@ -12658,7 +12693,7 @@
       <c r="N15" s="79"/>
       <c r="O15" s="80"/>
       <c r="P15" t="s" s="78">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="79"/>
       <c r="R15" s="79"/>
@@ -12820,20 +12855,20 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" t="s" s="84">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
       <c r="F16" t="s" s="77">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
       <c r="J16" t="s" s="42">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -12841,7 +12876,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="25"/>
       <c r="P16" t="s" s="42">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
@@ -13012,7 +13047,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
       <c r="J17" t="s" s="42">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -13020,7 +13055,7 @@
       <c r="N17" s="24"/>
       <c r="O17" s="25"/>
       <c r="P17" t="s" s="42">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
@@ -13191,7 +13226,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
       <c r="J18" t="s" s="42">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -13199,7 +13234,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="25"/>
       <c r="P18" t="s" s="42">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
@@ -13361,20 +13396,20 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" t="s" s="42">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
       <c r="F19" t="s" s="42">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
       <c r="J19" t="s" s="42">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
@@ -13382,7 +13417,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="25"/>
       <c r="P19" t="s" s="42">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
@@ -13553,7 +13588,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" t="s" s="42">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -13561,7 +13596,7 @@
       <c r="N20" s="24"/>
       <c r="O20" s="25"/>
       <c r="P20" t="s" s="42">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
@@ -13723,20 +13758,20 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" t="s" s="42">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
       <c r="F21" t="s" s="42">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" t="s" s="42">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
@@ -13744,7 +13779,7 @@
       <c r="N21" s="24"/>
       <c r="O21" s="25"/>
       <c r="P21" t="s" s="42">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
@@ -13915,7 +13950,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
       <c r="J22" t="s" s="42">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -13923,7 +13958,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="25"/>
       <c r="P22" t="s" s="42">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
@@ -14085,540 +14120,540 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="85"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="85"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="80"/>
-      <c r="J23" t="s" s="78">
-        <v>76</v>
-      </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="80"/>
-      <c r="P23" t="s" s="78">
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="87"/>
+      <c r="J23" t="s" s="88">
         <v>77</v>
       </c>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="80"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="87"/>
+      <c r="P23" t="s" s="88">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="87"/>
       <c r="AD23" s="70"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="82"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
-      <c r="AP23" s="82"/>
-      <c r="AQ23" s="82"/>
-      <c r="AR23" s="82"/>
-      <c r="AS23" s="82"/>
-      <c r="AT23" s="82"/>
-      <c r="AU23" s="82"/>
-      <c r="AV23" s="82"/>
-      <c r="AW23" s="82"/>
-      <c r="AX23" s="82"/>
-      <c r="AY23" s="82"/>
-      <c r="AZ23" s="82"/>
-      <c r="BA23" s="82"/>
-      <c r="BB23" s="82"/>
-      <c r="BC23" s="82"/>
-      <c r="BD23" s="82"/>
-      <c r="BE23" s="82"/>
-      <c r="BF23" s="82"/>
-      <c r="BG23" s="82"/>
-      <c r="BH23" s="82"/>
-      <c r="BI23" s="82"/>
-      <c r="BJ23" s="82"/>
-      <c r="BK23" s="82"/>
-      <c r="BL23" s="82"/>
-      <c r="BM23" s="82"/>
-      <c r="BN23" s="82"/>
-      <c r="BO23" s="82"/>
-      <c r="BP23" s="82"/>
-      <c r="BQ23" s="82"/>
-      <c r="BR23" s="82"/>
-      <c r="BS23" s="82"/>
-      <c r="BT23" s="82"/>
-      <c r="BU23" s="82"/>
-      <c r="BV23" s="82"/>
-      <c r="BW23" s="82"/>
-      <c r="BX23" s="82"/>
-      <c r="BY23" s="82"/>
-      <c r="BZ23" s="82"/>
-      <c r="CA23" s="82"/>
-      <c r="CB23" s="82"/>
-      <c r="CC23" s="82"/>
-      <c r="CD23" s="82"/>
-      <c r="CE23" s="82"/>
-      <c r="CF23" s="82"/>
-      <c r="CG23" s="82"/>
-      <c r="CH23" s="82"/>
-      <c r="CI23" s="82"/>
-      <c r="CJ23" s="82"/>
-      <c r="CK23" s="82"/>
-      <c r="CL23" s="82"/>
-      <c r="CM23" s="82"/>
-      <c r="CN23" s="82"/>
-      <c r="CO23" s="82"/>
-      <c r="CP23" s="82"/>
-      <c r="CQ23" s="82"/>
-      <c r="CR23" s="82"/>
-      <c r="CS23" s="82"/>
-      <c r="CT23" s="82"/>
-      <c r="CU23" s="82"/>
-      <c r="CV23" s="82"/>
-      <c r="CW23" s="82"/>
-      <c r="CX23" s="82"/>
-      <c r="CY23" s="82"/>
-      <c r="CZ23" s="82"/>
-      <c r="DA23" s="82"/>
-      <c r="DB23" s="82"/>
-      <c r="DC23" s="82"/>
-      <c r="DD23" s="82"/>
-      <c r="DE23" s="82"/>
-      <c r="DF23" s="82"/>
-      <c r="DG23" s="82"/>
-      <c r="DH23" s="82"/>
-      <c r="DI23" s="82"/>
-      <c r="DJ23" s="82"/>
-      <c r="DK23" s="82"/>
-      <c r="DL23" s="82"/>
-      <c r="DM23" s="82"/>
-      <c r="DN23" s="82"/>
-      <c r="DO23" s="82"/>
-      <c r="DP23" s="82"/>
-      <c r="DQ23" s="82"/>
-      <c r="DR23" s="82"/>
-      <c r="DS23" s="82"/>
-      <c r="DT23" s="82"/>
-      <c r="DU23" s="82"/>
-      <c r="DV23" s="82"/>
-      <c r="DW23" s="82"/>
-      <c r="DX23" s="82"/>
-      <c r="DY23" s="82"/>
-      <c r="DZ23" s="82"/>
-      <c r="EA23" s="82"/>
-      <c r="EB23" s="82"/>
-      <c r="EC23" s="82"/>
-      <c r="ED23" s="82"/>
-      <c r="EE23" s="82"/>
-      <c r="EF23" s="82"/>
-      <c r="EG23" s="82"/>
-      <c r="EH23" s="82"/>
-      <c r="EI23" s="82"/>
-      <c r="EJ23" s="82"/>
-      <c r="EK23" s="82"/>
-      <c r="EL23" s="82"/>
-      <c r="EM23" s="82"/>
-      <c r="EN23" s="82"/>
-      <c r="EO23" s="82"/>
-      <c r="EP23" s="82"/>
-      <c r="EQ23" s="82"/>
-      <c r="ER23" s="82"/>
-      <c r="ES23" s="82"/>
-      <c r="ET23" s="82"/>
-      <c r="EU23" s="82"/>
-      <c r="EV23" s="82"/>
-      <c r="EW23" s="82"/>
-      <c r="EX23" s="82"/>
-      <c r="EY23" s="82"/>
-      <c r="EZ23" s="82"/>
-      <c r="FA23" s="82"/>
-      <c r="FB23" s="82"/>
-      <c r="FC23" s="82"/>
-      <c r="FD23" s="82"/>
-      <c r="FE23" s="82"/>
-      <c r="FF23" s="82"/>
-      <c r="FG23" s="82"/>
-      <c r="FH23" s="82"/>
-      <c r="FI23" s="82"/>
-      <c r="FJ23" s="82"/>
-      <c r="FK23" s="82"/>
-      <c r="FL23" s="82"/>
-      <c r="FM23" s="82"/>
-      <c r="FN23" s="82"/>
-      <c r="FO23" s="82"/>
-      <c r="FP23" s="82"/>
-      <c r="FQ23" s="83"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="90"/>
+      <c r="AM23" s="90"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="90"/>
+      <c r="AV23" s="90"/>
+      <c r="AW23" s="90"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="90"/>
+      <c r="AZ23" s="90"/>
+      <c r="BA23" s="90"/>
+      <c r="BB23" s="90"/>
+      <c r="BC23" s="90"/>
+      <c r="BD23" s="90"/>
+      <c r="BE23" s="90"/>
+      <c r="BF23" s="90"/>
+      <c r="BG23" s="90"/>
+      <c r="BH23" s="90"/>
+      <c r="BI23" s="90"/>
+      <c r="BJ23" s="90"/>
+      <c r="BK23" s="90"/>
+      <c r="BL23" s="90"/>
+      <c r="BM23" s="90"/>
+      <c r="BN23" s="90"/>
+      <c r="BO23" s="90"/>
+      <c r="BP23" s="90"/>
+      <c r="BQ23" s="90"/>
+      <c r="BR23" s="90"/>
+      <c r="BS23" s="90"/>
+      <c r="BT23" s="90"/>
+      <c r="BU23" s="90"/>
+      <c r="BV23" s="90"/>
+      <c r="BW23" s="90"/>
+      <c r="BX23" s="90"/>
+      <c r="BY23" s="90"/>
+      <c r="BZ23" s="90"/>
+      <c r="CA23" s="90"/>
+      <c r="CB23" s="90"/>
+      <c r="CC23" s="90"/>
+      <c r="CD23" s="90"/>
+      <c r="CE23" s="90"/>
+      <c r="CF23" s="90"/>
+      <c r="CG23" s="90"/>
+      <c r="CH23" s="90"/>
+      <c r="CI23" s="90"/>
+      <c r="CJ23" s="90"/>
+      <c r="CK23" s="90"/>
+      <c r="CL23" s="90"/>
+      <c r="CM23" s="90"/>
+      <c r="CN23" s="90"/>
+      <c r="CO23" s="90"/>
+      <c r="CP23" s="90"/>
+      <c r="CQ23" s="90"/>
+      <c r="CR23" s="90"/>
+      <c r="CS23" s="90"/>
+      <c r="CT23" s="90"/>
+      <c r="CU23" s="90"/>
+      <c r="CV23" s="90"/>
+      <c r="CW23" s="90"/>
+      <c r="CX23" s="90"/>
+      <c r="CY23" s="90"/>
+      <c r="CZ23" s="90"/>
+      <c r="DA23" s="90"/>
+      <c r="DB23" s="90"/>
+      <c r="DC23" s="90"/>
+      <c r="DD23" s="90"/>
+      <c r="DE23" s="90"/>
+      <c r="DF23" s="90"/>
+      <c r="DG23" s="90"/>
+      <c r="DH23" s="90"/>
+      <c r="DI23" s="90"/>
+      <c r="DJ23" s="90"/>
+      <c r="DK23" s="90"/>
+      <c r="DL23" s="90"/>
+      <c r="DM23" s="90"/>
+      <c r="DN23" s="90"/>
+      <c r="DO23" s="90"/>
+      <c r="DP23" s="90"/>
+      <c r="DQ23" s="90"/>
+      <c r="DR23" s="90"/>
+      <c r="DS23" s="90"/>
+      <c r="DT23" s="90"/>
+      <c r="DU23" s="90"/>
+      <c r="DV23" s="90"/>
+      <c r="DW23" s="90"/>
+      <c r="DX23" s="90"/>
+      <c r="DY23" s="90"/>
+      <c r="DZ23" s="90"/>
+      <c r="EA23" s="90"/>
+      <c r="EB23" s="90"/>
+      <c r="EC23" s="90"/>
+      <c r="ED23" s="90"/>
+      <c r="EE23" s="90"/>
+      <c r="EF23" s="90"/>
+      <c r="EG23" s="90"/>
+      <c r="EH23" s="90"/>
+      <c r="EI23" s="90"/>
+      <c r="EJ23" s="90"/>
+      <c r="EK23" s="90"/>
+      <c r="EL23" s="90"/>
+      <c r="EM23" s="90"/>
+      <c r="EN23" s="90"/>
+      <c r="EO23" s="90"/>
+      <c r="EP23" s="90"/>
+      <c r="EQ23" s="90"/>
+      <c r="ER23" s="90"/>
+      <c r="ES23" s="90"/>
+      <c r="ET23" s="90"/>
+      <c r="EU23" s="90"/>
+      <c r="EV23" s="90"/>
+      <c r="EW23" s="90"/>
+      <c r="EX23" s="90"/>
+      <c r="EY23" s="90"/>
+      <c r="EZ23" s="90"/>
+      <c r="FA23" s="90"/>
+      <c r="FB23" s="90"/>
+      <c r="FC23" s="90"/>
+      <c r="FD23" s="90"/>
+      <c r="FE23" s="90"/>
+      <c r="FF23" s="90"/>
+      <c r="FG23" s="90"/>
+      <c r="FH23" s="90"/>
+      <c r="FI23" s="90"/>
+      <c r="FJ23" s="90"/>
+      <c r="FK23" s="90"/>
+      <c r="FL23" s="90"/>
+      <c r="FM23" s="90"/>
+      <c r="FN23" s="90"/>
+      <c r="FO23" s="90"/>
+      <c r="FP23" s="90"/>
+      <c r="FQ23" s="91"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="85"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="85"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
-      <c r="J24" t="s" s="78">
-        <v>78</v>
-      </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="80"/>
-      <c r="P24" t="s" s="78">
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="87"/>
+      <c r="J24" t="s" s="88">
         <v>79</v>
       </c>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="80"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="87"/>
+      <c r="P24" t="s" s="88">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="87"/>
       <c r="AD24" s="70"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="82"/>
-      <c r="AP24" s="82"/>
-      <c r="AQ24" s="82"/>
-      <c r="AR24" s="82"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="82"/>
-      <c r="AU24" s="82"/>
-      <c r="AV24" s="82"/>
-      <c r="AW24" s="82"/>
-      <c r="AX24" s="82"/>
-      <c r="AY24" s="82"/>
-      <c r="AZ24" s="82"/>
-      <c r="BA24" s="82"/>
-      <c r="BB24" s="82"/>
-      <c r="BC24" s="82"/>
-      <c r="BD24" s="82"/>
-      <c r="BE24" s="82"/>
-      <c r="BF24" s="82"/>
-      <c r="BG24" s="82"/>
-      <c r="BH24" s="82"/>
-      <c r="BI24" s="82"/>
-      <c r="BJ24" s="82"/>
-      <c r="BK24" s="82"/>
-      <c r="BL24" s="82"/>
-      <c r="BM24" s="82"/>
-      <c r="BN24" s="82"/>
-      <c r="BO24" s="82"/>
-      <c r="BP24" s="82"/>
-      <c r="BQ24" s="82"/>
-      <c r="BR24" s="82"/>
-      <c r="BS24" s="82"/>
-      <c r="BT24" s="82"/>
-      <c r="BU24" s="82"/>
-      <c r="BV24" s="82"/>
-      <c r="BW24" s="82"/>
-      <c r="BX24" s="82"/>
-      <c r="BY24" s="82"/>
-      <c r="BZ24" s="82"/>
-      <c r="CA24" s="82"/>
-      <c r="CB24" s="82"/>
-      <c r="CC24" s="82"/>
-      <c r="CD24" s="82"/>
-      <c r="CE24" s="82"/>
-      <c r="CF24" s="82"/>
-      <c r="CG24" s="82"/>
-      <c r="CH24" s="82"/>
-      <c r="CI24" s="82"/>
-      <c r="CJ24" s="82"/>
-      <c r="CK24" s="82"/>
-      <c r="CL24" s="82"/>
-      <c r="CM24" s="82"/>
-      <c r="CN24" s="82"/>
-      <c r="CO24" s="82"/>
-      <c r="CP24" s="82"/>
-      <c r="CQ24" s="82"/>
-      <c r="CR24" s="82"/>
-      <c r="CS24" s="82"/>
-      <c r="CT24" s="82"/>
-      <c r="CU24" s="82"/>
-      <c r="CV24" s="82"/>
-      <c r="CW24" s="82"/>
-      <c r="CX24" s="82"/>
-      <c r="CY24" s="82"/>
-      <c r="CZ24" s="82"/>
-      <c r="DA24" s="82"/>
-      <c r="DB24" s="82"/>
-      <c r="DC24" s="82"/>
-      <c r="DD24" s="82"/>
-      <c r="DE24" s="82"/>
-      <c r="DF24" s="82"/>
-      <c r="DG24" s="82"/>
-      <c r="DH24" s="82"/>
-      <c r="DI24" s="82"/>
-      <c r="DJ24" s="82"/>
-      <c r="DK24" s="82"/>
-      <c r="DL24" s="82"/>
-      <c r="DM24" s="82"/>
-      <c r="DN24" s="82"/>
-      <c r="DO24" s="82"/>
-      <c r="DP24" s="82"/>
-      <c r="DQ24" s="82"/>
-      <c r="DR24" s="82"/>
-      <c r="DS24" s="82"/>
-      <c r="DT24" s="82"/>
-      <c r="DU24" s="82"/>
-      <c r="DV24" s="82"/>
-      <c r="DW24" s="82"/>
-      <c r="DX24" s="82"/>
-      <c r="DY24" s="82"/>
-      <c r="DZ24" s="82"/>
-      <c r="EA24" s="82"/>
-      <c r="EB24" s="82"/>
-      <c r="EC24" s="82"/>
-      <c r="ED24" s="82"/>
-      <c r="EE24" s="82"/>
-      <c r="EF24" s="82"/>
-      <c r="EG24" s="82"/>
-      <c r="EH24" s="82"/>
-      <c r="EI24" s="82"/>
-      <c r="EJ24" s="82"/>
-      <c r="EK24" s="82"/>
-      <c r="EL24" s="82"/>
-      <c r="EM24" s="82"/>
-      <c r="EN24" s="82"/>
-      <c r="EO24" s="82"/>
-      <c r="EP24" s="82"/>
-      <c r="EQ24" s="82"/>
-      <c r="ER24" s="82"/>
-      <c r="ES24" s="82"/>
-      <c r="ET24" s="82"/>
-      <c r="EU24" s="82"/>
-      <c r="EV24" s="82"/>
-      <c r="EW24" s="82"/>
-      <c r="EX24" s="82"/>
-      <c r="EY24" s="82"/>
-      <c r="EZ24" s="82"/>
-      <c r="FA24" s="82"/>
-      <c r="FB24" s="82"/>
-      <c r="FC24" s="82"/>
-      <c r="FD24" s="82"/>
-      <c r="FE24" s="82"/>
-      <c r="FF24" s="82"/>
-      <c r="FG24" s="82"/>
-      <c r="FH24" s="82"/>
-      <c r="FI24" s="82"/>
-      <c r="FJ24" s="82"/>
-      <c r="FK24" s="82"/>
-      <c r="FL24" s="82"/>
-      <c r="FM24" s="82"/>
-      <c r="FN24" s="82"/>
-      <c r="FO24" s="82"/>
-      <c r="FP24" s="82"/>
-      <c r="FQ24" s="83"/>
+      <c r="AE24" s="89"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="90"/>
+      <c r="AM24" s="90"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="90"/>
+      <c r="BA24" s="90"/>
+      <c r="BB24" s="90"/>
+      <c r="BC24" s="90"/>
+      <c r="BD24" s="90"/>
+      <c r="BE24" s="90"/>
+      <c r="BF24" s="90"/>
+      <c r="BG24" s="90"/>
+      <c r="BH24" s="90"/>
+      <c r="BI24" s="90"/>
+      <c r="BJ24" s="90"/>
+      <c r="BK24" s="90"/>
+      <c r="BL24" s="90"/>
+      <c r="BM24" s="90"/>
+      <c r="BN24" s="90"/>
+      <c r="BO24" s="90"/>
+      <c r="BP24" s="90"/>
+      <c r="BQ24" s="90"/>
+      <c r="BR24" s="90"/>
+      <c r="BS24" s="90"/>
+      <c r="BT24" s="90"/>
+      <c r="BU24" s="90"/>
+      <c r="BV24" s="90"/>
+      <c r="BW24" s="90"/>
+      <c r="BX24" s="90"/>
+      <c r="BY24" s="90"/>
+      <c r="BZ24" s="90"/>
+      <c r="CA24" s="90"/>
+      <c r="CB24" s="90"/>
+      <c r="CC24" s="90"/>
+      <c r="CD24" s="90"/>
+      <c r="CE24" s="90"/>
+      <c r="CF24" s="90"/>
+      <c r="CG24" s="90"/>
+      <c r="CH24" s="90"/>
+      <c r="CI24" s="90"/>
+      <c r="CJ24" s="90"/>
+      <c r="CK24" s="90"/>
+      <c r="CL24" s="90"/>
+      <c r="CM24" s="90"/>
+      <c r="CN24" s="90"/>
+      <c r="CO24" s="90"/>
+      <c r="CP24" s="90"/>
+      <c r="CQ24" s="90"/>
+      <c r="CR24" s="90"/>
+      <c r="CS24" s="90"/>
+      <c r="CT24" s="90"/>
+      <c r="CU24" s="90"/>
+      <c r="CV24" s="90"/>
+      <c r="CW24" s="90"/>
+      <c r="CX24" s="90"/>
+      <c r="CY24" s="90"/>
+      <c r="CZ24" s="90"/>
+      <c r="DA24" s="90"/>
+      <c r="DB24" s="90"/>
+      <c r="DC24" s="90"/>
+      <c r="DD24" s="90"/>
+      <c r="DE24" s="90"/>
+      <c r="DF24" s="90"/>
+      <c r="DG24" s="90"/>
+      <c r="DH24" s="90"/>
+      <c r="DI24" s="90"/>
+      <c r="DJ24" s="90"/>
+      <c r="DK24" s="90"/>
+      <c r="DL24" s="90"/>
+      <c r="DM24" s="90"/>
+      <c r="DN24" s="90"/>
+      <c r="DO24" s="90"/>
+      <c r="DP24" s="90"/>
+      <c r="DQ24" s="90"/>
+      <c r="DR24" s="90"/>
+      <c r="DS24" s="90"/>
+      <c r="DT24" s="90"/>
+      <c r="DU24" s="90"/>
+      <c r="DV24" s="90"/>
+      <c r="DW24" s="90"/>
+      <c r="DX24" s="90"/>
+      <c r="DY24" s="90"/>
+      <c r="DZ24" s="90"/>
+      <c r="EA24" s="90"/>
+      <c r="EB24" s="90"/>
+      <c r="EC24" s="90"/>
+      <c r="ED24" s="90"/>
+      <c r="EE24" s="90"/>
+      <c r="EF24" s="90"/>
+      <c r="EG24" s="90"/>
+      <c r="EH24" s="90"/>
+      <c r="EI24" s="90"/>
+      <c r="EJ24" s="90"/>
+      <c r="EK24" s="90"/>
+      <c r="EL24" s="90"/>
+      <c r="EM24" s="90"/>
+      <c r="EN24" s="90"/>
+      <c r="EO24" s="90"/>
+      <c r="EP24" s="90"/>
+      <c r="EQ24" s="90"/>
+      <c r="ER24" s="90"/>
+      <c r="ES24" s="90"/>
+      <c r="ET24" s="90"/>
+      <c r="EU24" s="90"/>
+      <c r="EV24" s="90"/>
+      <c r="EW24" s="90"/>
+      <c r="EX24" s="90"/>
+      <c r="EY24" s="90"/>
+      <c r="EZ24" s="90"/>
+      <c r="FA24" s="90"/>
+      <c r="FB24" s="90"/>
+      <c r="FC24" s="90"/>
+      <c r="FD24" s="90"/>
+      <c r="FE24" s="90"/>
+      <c r="FF24" s="90"/>
+      <c r="FG24" s="90"/>
+      <c r="FH24" s="90"/>
+      <c r="FI24" s="90"/>
+      <c r="FJ24" s="90"/>
+      <c r="FK24" s="90"/>
+      <c r="FL24" s="90"/>
+      <c r="FM24" s="90"/>
+      <c r="FN24" s="90"/>
+      <c r="FO24" s="90"/>
+      <c r="FP24" s="90"/>
+      <c r="FQ24" s="91"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="85"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
       <c r="F25" s="85"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="80"/>
-      <c r="J25" t="s" s="78">
-        <v>80</v>
-      </c>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="80"/>
-      <c r="P25" t="s" s="78">
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
+      <c r="J25" t="s" s="88">
         <v>81</v>
       </c>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="80"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="87"/>
+      <c r="P25" t="s" s="88">
+        <v>82</v>
+      </c>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="87"/>
       <c r="AD25" s="70"/>
-      <c r="AE25" s="81"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="82"/>
-      <c r="AM25" s="82"/>
-      <c r="AN25" s="82"/>
-      <c r="AO25" s="82"/>
-      <c r="AP25" s="82"/>
-      <c r="AQ25" s="82"/>
-      <c r="AR25" s="82"/>
-      <c r="AS25" s="82"/>
-      <c r="AT25" s="82"/>
-      <c r="AU25" s="82"/>
-      <c r="AV25" s="82"/>
-      <c r="AW25" s="82"/>
-      <c r="AX25" s="82"/>
-      <c r="AY25" s="82"/>
-      <c r="AZ25" s="82"/>
-      <c r="BA25" s="82"/>
-      <c r="BB25" s="82"/>
-      <c r="BC25" s="82"/>
-      <c r="BD25" s="82"/>
-      <c r="BE25" s="82"/>
-      <c r="BF25" s="82"/>
-      <c r="BG25" s="82"/>
-      <c r="BH25" s="82"/>
-      <c r="BI25" s="82"/>
-      <c r="BJ25" s="82"/>
-      <c r="BK25" s="82"/>
-      <c r="BL25" s="82"/>
-      <c r="BM25" s="82"/>
-      <c r="BN25" s="82"/>
-      <c r="BO25" s="82"/>
-      <c r="BP25" s="82"/>
-      <c r="BQ25" s="82"/>
-      <c r="BR25" s="82"/>
-      <c r="BS25" s="82"/>
-      <c r="BT25" s="82"/>
-      <c r="BU25" s="82"/>
-      <c r="BV25" s="82"/>
-      <c r="BW25" s="82"/>
-      <c r="BX25" s="82"/>
-      <c r="BY25" s="82"/>
-      <c r="BZ25" s="82"/>
-      <c r="CA25" s="82"/>
-      <c r="CB25" s="82"/>
-      <c r="CC25" s="82"/>
-      <c r="CD25" s="82"/>
-      <c r="CE25" s="82"/>
-      <c r="CF25" s="82"/>
-      <c r="CG25" s="82"/>
-      <c r="CH25" s="82"/>
-      <c r="CI25" s="82"/>
-      <c r="CJ25" s="82"/>
-      <c r="CK25" s="82"/>
-      <c r="CL25" s="82"/>
-      <c r="CM25" s="82"/>
-      <c r="CN25" s="82"/>
-      <c r="CO25" s="82"/>
-      <c r="CP25" s="82"/>
-      <c r="CQ25" s="82"/>
-      <c r="CR25" s="82"/>
-      <c r="CS25" s="82"/>
-      <c r="CT25" s="82"/>
-      <c r="CU25" s="82"/>
-      <c r="CV25" s="82"/>
-      <c r="CW25" s="82"/>
-      <c r="CX25" s="82"/>
-      <c r="CY25" s="82"/>
-      <c r="CZ25" s="82"/>
-      <c r="DA25" s="82"/>
-      <c r="DB25" s="82"/>
-      <c r="DC25" s="82"/>
-      <c r="DD25" s="82"/>
-      <c r="DE25" s="82"/>
-      <c r="DF25" s="82"/>
-      <c r="DG25" s="82"/>
-      <c r="DH25" s="82"/>
-      <c r="DI25" s="82"/>
-      <c r="DJ25" s="82"/>
-      <c r="DK25" s="82"/>
-      <c r="DL25" s="82"/>
-      <c r="DM25" s="82"/>
-      <c r="DN25" s="82"/>
-      <c r="DO25" s="82"/>
-      <c r="DP25" s="82"/>
-      <c r="DQ25" s="82"/>
-      <c r="DR25" s="82"/>
-      <c r="DS25" s="82"/>
-      <c r="DT25" s="82"/>
-      <c r="DU25" s="82"/>
-      <c r="DV25" s="82"/>
-      <c r="DW25" s="82"/>
-      <c r="DX25" s="82"/>
-      <c r="DY25" s="82"/>
-      <c r="DZ25" s="82"/>
-      <c r="EA25" s="82"/>
-      <c r="EB25" s="82"/>
-      <c r="EC25" s="82"/>
-      <c r="ED25" s="82"/>
-      <c r="EE25" s="82"/>
-      <c r="EF25" s="82"/>
-      <c r="EG25" s="82"/>
-      <c r="EH25" s="82"/>
-      <c r="EI25" s="82"/>
-      <c r="EJ25" s="82"/>
-      <c r="EK25" s="82"/>
-      <c r="EL25" s="82"/>
-      <c r="EM25" s="82"/>
-      <c r="EN25" s="82"/>
-      <c r="EO25" s="82"/>
-      <c r="EP25" s="82"/>
-      <c r="EQ25" s="82"/>
-      <c r="ER25" s="82"/>
-      <c r="ES25" s="82"/>
-      <c r="ET25" s="82"/>
-      <c r="EU25" s="82"/>
-      <c r="EV25" s="82"/>
-      <c r="EW25" s="82"/>
-      <c r="EX25" s="82"/>
-      <c r="EY25" s="82"/>
-      <c r="EZ25" s="82"/>
-      <c r="FA25" s="82"/>
-      <c r="FB25" s="82"/>
-      <c r="FC25" s="82"/>
-      <c r="FD25" s="82"/>
-      <c r="FE25" s="82"/>
-      <c r="FF25" s="82"/>
-      <c r="FG25" s="82"/>
-      <c r="FH25" s="82"/>
-      <c r="FI25" s="82"/>
-      <c r="FJ25" s="82"/>
-      <c r="FK25" s="82"/>
-      <c r="FL25" s="82"/>
-      <c r="FM25" s="82"/>
-      <c r="FN25" s="82"/>
-      <c r="FO25" s="82"/>
-      <c r="FP25" s="82"/>
-      <c r="FQ25" s="83"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="90"/>
+      <c r="AM25" s="90"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="90"/>
+      <c r="BA25" s="90"/>
+      <c r="BB25" s="90"/>
+      <c r="BC25" s="90"/>
+      <c r="BD25" s="90"/>
+      <c r="BE25" s="90"/>
+      <c r="BF25" s="90"/>
+      <c r="BG25" s="90"/>
+      <c r="BH25" s="90"/>
+      <c r="BI25" s="90"/>
+      <c r="BJ25" s="90"/>
+      <c r="BK25" s="90"/>
+      <c r="BL25" s="90"/>
+      <c r="BM25" s="90"/>
+      <c r="BN25" s="90"/>
+      <c r="BO25" s="90"/>
+      <c r="BP25" s="90"/>
+      <c r="BQ25" s="90"/>
+      <c r="BR25" s="90"/>
+      <c r="BS25" s="90"/>
+      <c r="BT25" s="90"/>
+      <c r="BU25" s="90"/>
+      <c r="BV25" s="90"/>
+      <c r="BW25" s="90"/>
+      <c r="BX25" s="90"/>
+      <c r="BY25" s="90"/>
+      <c r="BZ25" s="90"/>
+      <c r="CA25" s="90"/>
+      <c r="CB25" s="90"/>
+      <c r="CC25" s="90"/>
+      <c r="CD25" s="90"/>
+      <c r="CE25" s="90"/>
+      <c r="CF25" s="90"/>
+      <c r="CG25" s="90"/>
+      <c r="CH25" s="90"/>
+      <c r="CI25" s="90"/>
+      <c r="CJ25" s="90"/>
+      <c r="CK25" s="90"/>
+      <c r="CL25" s="90"/>
+      <c r="CM25" s="90"/>
+      <c r="CN25" s="90"/>
+      <c r="CO25" s="90"/>
+      <c r="CP25" s="90"/>
+      <c r="CQ25" s="90"/>
+      <c r="CR25" s="90"/>
+      <c r="CS25" s="90"/>
+      <c r="CT25" s="90"/>
+      <c r="CU25" s="90"/>
+      <c r="CV25" s="90"/>
+      <c r="CW25" s="90"/>
+      <c r="CX25" s="90"/>
+      <c r="CY25" s="90"/>
+      <c r="CZ25" s="90"/>
+      <c r="DA25" s="90"/>
+      <c r="DB25" s="90"/>
+      <c r="DC25" s="90"/>
+      <c r="DD25" s="90"/>
+      <c r="DE25" s="90"/>
+      <c r="DF25" s="90"/>
+      <c r="DG25" s="90"/>
+      <c r="DH25" s="90"/>
+      <c r="DI25" s="90"/>
+      <c r="DJ25" s="90"/>
+      <c r="DK25" s="90"/>
+      <c r="DL25" s="90"/>
+      <c r="DM25" s="90"/>
+      <c r="DN25" s="90"/>
+      <c r="DO25" s="90"/>
+      <c r="DP25" s="90"/>
+      <c r="DQ25" s="90"/>
+      <c r="DR25" s="90"/>
+      <c r="DS25" s="90"/>
+      <c r="DT25" s="90"/>
+      <c r="DU25" s="90"/>
+      <c r="DV25" s="90"/>
+      <c r="DW25" s="90"/>
+      <c r="DX25" s="90"/>
+      <c r="DY25" s="90"/>
+      <c r="DZ25" s="90"/>
+      <c r="EA25" s="90"/>
+      <c r="EB25" s="90"/>
+      <c r="EC25" s="90"/>
+      <c r="ED25" s="90"/>
+      <c r="EE25" s="90"/>
+      <c r="EF25" s="90"/>
+      <c r="EG25" s="90"/>
+      <c r="EH25" s="90"/>
+      <c r="EI25" s="90"/>
+      <c r="EJ25" s="90"/>
+      <c r="EK25" s="90"/>
+      <c r="EL25" s="90"/>
+      <c r="EM25" s="90"/>
+      <c r="EN25" s="90"/>
+      <c r="EO25" s="90"/>
+      <c r="EP25" s="90"/>
+      <c r="EQ25" s="90"/>
+      <c r="ER25" s="90"/>
+      <c r="ES25" s="90"/>
+      <c r="ET25" s="90"/>
+      <c r="EU25" s="90"/>
+      <c r="EV25" s="90"/>
+      <c r="EW25" s="90"/>
+      <c r="EX25" s="90"/>
+      <c r="EY25" s="90"/>
+      <c r="EZ25" s="90"/>
+      <c r="FA25" s="90"/>
+      <c r="FB25" s="90"/>
+      <c r="FC25" s="90"/>
+      <c r="FD25" s="90"/>
+      <c r="FE25" s="90"/>
+      <c r="FF25" s="90"/>
+      <c r="FG25" s="90"/>
+      <c r="FH25" s="90"/>
+      <c r="FI25" s="90"/>
+      <c r="FJ25" s="90"/>
+      <c r="FK25" s="90"/>
+      <c r="FL25" s="90"/>
+      <c r="FM25" s="90"/>
+      <c r="FN25" s="90"/>
+      <c r="FO25" s="90"/>
+      <c r="FP25" s="90"/>
+      <c r="FQ25" s="91"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="48"/>
@@ -14631,7 +14666,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="25"/>
       <c r="J26" t="s" s="42">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -14639,7 +14674,7 @@
       <c r="N26" s="24"/>
       <c r="O26" s="25"/>
       <c r="P26" t="s" s="42">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
@@ -14801,20 +14836,20 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" t="s" s="42">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
       <c r="F27" t="s" s="42">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
       <c r="J27" t="s" s="42">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
@@ -14822,7 +14857,7 @@
       <c r="N27" s="24"/>
       <c r="O27" s="25"/>
       <c r="P27" t="s" s="42">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
@@ -14984,20 +15019,20 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" t="s" s="42">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
       <c r="F28" t="s" s="42">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="25"/>
       <c r="J28" t="s" s="42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
@@ -15005,7 +15040,7 @@
       <c r="N28" s="24"/>
       <c r="O28" s="25"/>
       <c r="P28" t="s" s="42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
@@ -15020,7 +15055,7 @@
       <c r="AA28" s="24"/>
       <c r="AB28" s="24"/>
       <c r="AC28" s="25"/>
-      <c r="AD28" s="86">
+      <c r="AD28" s="92">
         <v>45168</v>
       </c>
       <c r="AE28" s="14"/>
@@ -15178,7 +15213,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
       <c r="J29" t="s" s="42">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
@@ -15186,7 +15221,7 @@
       <c r="N29" s="24"/>
       <c r="O29" s="25"/>
       <c r="P29" t="s" s="42">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
@@ -15201,7 +15236,7 @@
       <c r="AA29" s="24"/>
       <c r="AB29" s="24"/>
       <c r="AC29" s="25"/>
-      <c r="AD29" s="86">
+      <c r="AD29" s="92">
         <v>45168</v>
       </c>
       <c r="AE29" s="14"/>
@@ -15349,22 +15384,30 @@
       <c r="FQ29" s="18"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" t="s" s="42">
+        <v>93</v>
+      </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="48"/>
+      <c r="F30" t="s" s="42">
+        <v>94</v>
+      </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="48"/>
+      <c r="J30" t="s" s="42">
+        <v>94</v>
+      </c>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="25"/>
-      <c r="P30" s="48"/>
+      <c r="P30" t="s" s="42">
+        <v>95</v>
+      </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
@@ -15379,149 +15422,674 @@
       <c r="AB30" s="24"/>
       <c r="AC30" s="25"/>
       <c r="AD30" s="70"/>
-      <c r="AE30" s="53"/>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="54"/>
-      <c r="AP30" s="54"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
-      <c r="AT30" s="54"/>
-      <c r="AU30" s="54"/>
-      <c r="AV30" s="54"/>
-      <c r="AW30" s="54"/>
-      <c r="AX30" s="54"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="54"/>
-      <c r="BA30" s="54"/>
-      <c r="BB30" s="54"/>
-      <c r="BC30" s="54"/>
-      <c r="BD30" s="54"/>
-      <c r="BE30" s="54"/>
-      <c r="BF30" s="54"/>
-      <c r="BG30" s="54"/>
-      <c r="BH30" s="54"/>
-      <c r="BI30" s="54"/>
-      <c r="BJ30" s="54"/>
-      <c r="BK30" s="54"/>
-      <c r="BL30" s="54"/>
-      <c r="BM30" s="54"/>
-      <c r="BN30" s="54"/>
-      <c r="BO30" s="54"/>
-      <c r="BP30" s="54"/>
-      <c r="BQ30" s="54"/>
-      <c r="BR30" s="54"/>
-      <c r="BS30" s="54"/>
-      <c r="BT30" s="54"/>
-      <c r="BU30" s="54"/>
-      <c r="BV30" s="54"/>
-      <c r="BW30" s="54"/>
-      <c r="BX30" s="54"/>
-      <c r="BY30" s="54"/>
-      <c r="BZ30" s="54"/>
-      <c r="CA30" s="54"/>
-      <c r="CB30" s="54"/>
-      <c r="CC30" s="54"/>
-      <c r="CD30" s="54"/>
-      <c r="CE30" s="54"/>
-      <c r="CF30" s="54"/>
-      <c r="CG30" s="54"/>
-      <c r="CH30" s="54"/>
-      <c r="CI30" s="54"/>
-      <c r="CJ30" s="54"/>
-      <c r="CK30" s="54"/>
-      <c r="CL30" s="54"/>
-      <c r="CM30" s="54"/>
-      <c r="CN30" s="54"/>
-      <c r="CO30" s="54"/>
-      <c r="CP30" s="54"/>
-      <c r="CQ30" s="54"/>
-      <c r="CR30" s="54"/>
-      <c r="CS30" s="54"/>
-      <c r="CT30" s="54"/>
-      <c r="CU30" s="54"/>
-      <c r="CV30" s="54"/>
-      <c r="CW30" s="54"/>
-      <c r="CX30" s="54"/>
-      <c r="CY30" s="54"/>
-      <c r="CZ30" s="54"/>
-      <c r="DA30" s="54"/>
-      <c r="DB30" s="54"/>
-      <c r="DC30" s="54"/>
-      <c r="DD30" s="54"/>
-      <c r="DE30" s="54"/>
-      <c r="DF30" s="54"/>
-      <c r="DG30" s="54"/>
-      <c r="DH30" s="54"/>
-      <c r="DI30" s="54"/>
-      <c r="DJ30" s="54"/>
-      <c r="DK30" s="54"/>
-      <c r="DL30" s="54"/>
-      <c r="DM30" s="54"/>
-      <c r="DN30" s="54"/>
-      <c r="DO30" s="54"/>
-      <c r="DP30" s="54"/>
-      <c r="DQ30" s="54"/>
-      <c r="DR30" s="54"/>
-      <c r="DS30" s="54"/>
-      <c r="DT30" s="54"/>
-      <c r="DU30" s="54"/>
-      <c r="DV30" s="54"/>
-      <c r="DW30" s="54"/>
-      <c r="DX30" s="54"/>
-      <c r="DY30" s="54"/>
-      <c r="DZ30" s="54"/>
-      <c r="EA30" s="54"/>
-      <c r="EB30" s="54"/>
-      <c r="EC30" s="54"/>
-      <c r="ED30" s="54"/>
-      <c r="EE30" s="54"/>
-      <c r="EF30" s="54"/>
-      <c r="EG30" s="54"/>
-      <c r="EH30" s="54"/>
-      <c r="EI30" s="54"/>
-      <c r="EJ30" s="54"/>
-      <c r="EK30" s="54"/>
-      <c r="EL30" s="54"/>
-      <c r="EM30" s="54"/>
-      <c r="EN30" s="54"/>
-      <c r="EO30" s="54"/>
-      <c r="EP30" s="54"/>
-      <c r="EQ30" s="54"/>
-      <c r="ER30" s="54"/>
-      <c r="ES30" s="54"/>
-      <c r="ET30" s="54"/>
-      <c r="EU30" s="54"/>
-      <c r="EV30" s="54"/>
-      <c r="EW30" s="54"/>
-      <c r="EX30" s="54"/>
-      <c r="EY30" s="54"/>
-      <c r="EZ30" s="54"/>
-      <c r="FA30" s="54"/>
-      <c r="FB30" s="54"/>
-      <c r="FC30" s="54"/>
-      <c r="FD30" s="54"/>
-      <c r="FE30" s="54"/>
-      <c r="FF30" s="54"/>
-      <c r="FG30" s="54"/>
-      <c r="FH30" s="54"/>
-      <c r="FI30" s="54"/>
-      <c r="FJ30" s="54"/>
-      <c r="FK30" s="54"/>
-      <c r="FL30" s="54"/>
-      <c r="FM30" s="54"/>
-      <c r="FN30" s="54"/>
-      <c r="FO30" s="54"/>
-      <c r="FP30" s="54"/>
-      <c r="FQ30" s="55"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
+      <c r="BM30" s="15"/>
+      <c r="BN30" s="15"/>
+      <c r="BO30" s="15"/>
+      <c r="BP30" s="15"/>
+      <c r="BQ30" s="15"/>
+      <c r="BR30" s="15"/>
+      <c r="BS30" s="15"/>
+      <c r="BT30" s="15"/>
+      <c r="BU30" s="15"/>
+      <c r="BV30" s="15"/>
+      <c r="BW30" s="15"/>
+      <c r="BX30" s="15"/>
+      <c r="BY30" s="15"/>
+      <c r="BZ30" s="15"/>
+      <c r="CA30" s="15"/>
+      <c r="CB30" s="15"/>
+      <c r="CC30" s="15"/>
+      <c r="CD30" s="15"/>
+      <c r="CE30" s="15"/>
+      <c r="CF30" s="15"/>
+      <c r="CG30" s="15"/>
+      <c r="CH30" s="15"/>
+      <c r="CI30" s="15"/>
+      <c r="CJ30" s="15"/>
+      <c r="CK30" s="15"/>
+      <c r="CL30" s="15"/>
+      <c r="CM30" s="15"/>
+      <c r="CN30" s="15"/>
+      <c r="CO30" s="15"/>
+      <c r="CP30" s="15"/>
+      <c r="CQ30" s="15"/>
+      <c r="CR30" s="15"/>
+      <c r="CS30" s="15"/>
+      <c r="CT30" s="15"/>
+      <c r="CU30" s="15"/>
+      <c r="CV30" s="15"/>
+      <c r="CW30" s="15"/>
+      <c r="CX30" s="15"/>
+      <c r="CY30" s="15"/>
+      <c r="CZ30" s="15"/>
+      <c r="DA30" s="15"/>
+      <c r="DB30" s="15"/>
+      <c r="DC30" s="15"/>
+      <c r="DD30" s="15"/>
+      <c r="DE30" s="15"/>
+      <c r="DF30" s="15"/>
+      <c r="DG30" s="15"/>
+      <c r="DH30" s="15"/>
+      <c r="DI30" s="15"/>
+      <c r="DJ30" s="15"/>
+      <c r="DK30" s="15"/>
+      <c r="DL30" s="15"/>
+      <c r="DM30" s="15"/>
+      <c r="DN30" s="15"/>
+      <c r="DO30" s="15"/>
+      <c r="DP30" s="15"/>
+      <c r="DQ30" s="15"/>
+      <c r="DR30" s="15"/>
+      <c r="DS30" s="15"/>
+      <c r="DT30" s="15"/>
+      <c r="DU30" s="15"/>
+      <c r="DV30" s="15"/>
+      <c r="DW30" s="15"/>
+      <c r="DX30" s="15"/>
+      <c r="DY30" s="15"/>
+      <c r="DZ30" s="15"/>
+      <c r="EA30" s="15"/>
+      <c r="EB30" s="15"/>
+      <c r="EC30" s="15"/>
+      <c r="ED30" s="15"/>
+      <c r="EE30" s="15"/>
+      <c r="EF30" s="15"/>
+      <c r="EG30" s="15"/>
+      <c r="EH30" s="15"/>
+      <c r="EI30" s="15"/>
+      <c r="EJ30" s="15"/>
+      <c r="EK30" s="15"/>
+      <c r="EL30" s="15"/>
+      <c r="EM30" s="15"/>
+      <c r="EN30" s="15"/>
+      <c r="EO30" s="15"/>
+      <c r="EP30" s="15"/>
+      <c r="EQ30" s="15"/>
+      <c r="ER30" s="15"/>
+      <c r="ES30" s="15"/>
+      <c r="ET30" s="15"/>
+      <c r="EU30" s="15"/>
+      <c r="EV30" s="15"/>
+      <c r="EW30" s="15"/>
+      <c r="EX30" s="15"/>
+      <c r="EY30" s="15"/>
+      <c r="EZ30" s="15"/>
+      <c r="FA30" s="15"/>
+      <c r="FB30" s="15"/>
+      <c r="FC30" s="15"/>
+      <c r="FD30" s="15"/>
+      <c r="FE30" s="15"/>
+      <c r="FF30" s="15"/>
+      <c r="FG30" s="15"/>
+      <c r="FH30" s="15"/>
+      <c r="FI30" s="15"/>
+      <c r="FJ30" s="15"/>
+      <c r="FK30" s="15"/>
+      <c r="FL30" s="15"/>
+      <c r="FM30" s="15"/>
+      <c r="FN30" s="15"/>
+      <c r="FO30" s="15"/>
+      <c r="FP30" s="15"/>
+      <c r="FQ30" s="18"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="48"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="15"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="15"/>
+      <c r="BO31" s="15"/>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="15"/>
+      <c r="BS31" s="15"/>
+      <c r="BT31" s="15"/>
+      <c r="BU31" s="15"/>
+      <c r="BV31" s="15"/>
+      <c r="BW31" s="15"/>
+      <c r="BX31" s="15"/>
+      <c r="BY31" s="15"/>
+      <c r="BZ31" s="15"/>
+      <c r="CA31" s="15"/>
+      <c r="CB31" s="15"/>
+      <c r="CC31" s="15"/>
+      <c r="CD31" s="15"/>
+      <c r="CE31" s="15"/>
+      <c r="CF31" s="15"/>
+      <c r="CG31" s="15"/>
+      <c r="CH31" s="15"/>
+      <c r="CI31" s="15"/>
+      <c r="CJ31" s="15"/>
+      <c r="CK31" s="15"/>
+      <c r="CL31" s="15"/>
+      <c r="CM31" s="15"/>
+      <c r="CN31" s="15"/>
+      <c r="CO31" s="15"/>
+      <c r="CP31" s="15"/>
+      <c r="CQ31" s="15"/>
+      <c r="CR31" s="15"/>
+      <c r="CS31" s="15"/>
+      <c r="CT31" s="15"/>
+      <c r="CU31" s="15"/>
+      <c r="CV31" s="15"/>
+      <c r="CW31" s="15"/>
+      <c r="CX31" s="15"/>
+      <c r="CY31" s="15"/>
+      <c r="CZ31" s="15"/>
+      <c r="DA31" s="15"/>
+      <c r="DB31" s="15"/>
+      <c r="DC31" s="15"/>
+      <c r="DD31" s="15"/>
+      <c r="DE31" s="15"/>
+      <c r="DF31" s="15"/>
+      <c r="DG31" s="15"/>
+      <c r="DH31" s="15"/>
+      <c r="DI31" s="15"/>
+      <c r="DJ31" s="15"/>
+      <c r="DK31" s="15"/>
+      <c r="DL31" s="15"/>
+      <c r="DM31" s="15"/>
+      <c r="DN31" s="15"/>
+      <c r="DO31" s="15"/>
+      <c r="DP31" s="15"/>
+      <c r="DQ31" s="15"/>
+      <c r="DR31" s="15"/>
+      <c r="DS31" s="15"/>
+      <c r="DT31" s="15"/>
+      <c r="DU31" s="15"/>
+      <c r="DV31" s="15"/>
+      <c r="DW31" s="15"/>
+      <c r="DX31" s="15"/>
+      <c r="DY31" s="15"/>
+      <c r="DZ31" s="15"/>
+      <c r="EA31" s="15"/>
+      <c r="EB31" s="15"/>
+      <c r="EC31" s="15"/>
+      <c r="ED31" s="15"/>
+      <c r="EE31" s="15"/>
+      <c r="EF31" s="15"/>
+      <c r="EG31" s="15"/>
+      <c r="EH31" s="15"/>
+      <c r="EI31" s="15"/>
+      <c r="EJ31" s="15"/>
+      <c r="EK31" s="15"/>
+      <c r="EL31" s="15"/>
+      <c r="EM31" s="15"/>
+      <c r="EN31" s="15"/>
+      <c r="EO31" s="15"/>
+      <c r="EP31" s="15"/>
+      <c r="EQ31" s="15"/>
+      <c r="ER31" s="15"/>
+      <c r="ES31" s="15"/>
+      <c r="ET31" s="15"/>
+      <c r="EU31" s="15"/>
+      <c r="EV31" s="15"/>
+      <c r="EW31" s="15"/>
+      <c r="EX31" s="15"/>
+      <c r="EY31" s="15"/>
+      <c r="EZ31" s="15"/>
+      <c r="FA31" s="15"/>
+      <c r="FB31" s="15"/>
+      <c r="FC31" s="15"/>
+      <c r="FD31" s="15"/>
+      <c r="FE31" s="15"/>
+      <c r="FF31" s="15"/>
+      <c r="FG31" s="15"/>
+      <c r="FH31" s="15"/>
+      <c r="FI31" s="15"/>
+      <c r="FJ31" s="15"/>
+      <c r="FK31" s="15"/>
+      <c r="FL31" s="15"/>
+      <c r="FM31" s="15"/>
+      <c r="FN31" s="15"/>
+      <c r="FO31" s="15"/>
+      <c r="FP31" s="15"/>
+      <c r="FQ31" s="18"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="48"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="15"/>
+      <c r="BO32" s="15"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
+      <c r="BT32" s="15"/>
+      <c r="BU32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BW32" s="15"/>
+      <c r="BX32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="15"/>
+      <c r="CA32" s="15"/>
+      <c r="CB32" s="15"/>
+      <c r="CC32" s="15"/>
+      <c r="CD32" s="15"/>
+      <c r="CE32" s="15"/>
+      <c r="CF32" s="15"/>
+      <c r="CG32" s="15"/>
+      <c r="CH32" s="15"/>
+      <c r="CI32" s="15"/>
+      <c r="CJ32" s="15"/>
+      <c r="CK32" s="15"/>
+      <c r="CL32" s="15"/>
+      <c r="CM32" s="15"/>
+      <c r="CN32" s="15"/>
+      <c r="CO32" s="15"/>
+      <c r="CP32" s="15"/>
+      <c r="CQ32" s="15"/>
+      <c r="CR32" s="15"/>
+      <c r="CS32" s="15"/>
+      <c r="CT32" s="15"/>
+      <c r="CU32" s="15"/>
+      <c r="CV32" s="15"/>
+      <c r="CW32" s="15"/>
+      <c r="CX32" s="15"/>
+      <c r="CY32" s="15"/>
+      <c r="CZ32" s="15"/>
+      <c r="DA32" s="15"/>
+      <c r="DB32" s="15"/>
+      <c r="DC32" s="15"/>
+      <c r="DD32" s="15"/>
+      <c r="DE32" s="15"/>
+      <c r="DF32" s="15"/>
+      <c r="DG32" s="15"/>
+      <c r="DH32" s="15"/>
+      <c r="DI32" s="15"/>
+      <c r="DJ32" s="15"/>
+      <c r="DK32" s="15"/>
+      <c r="DL32" s="15"/>
+      <c r="DM32" s="15"/>
+      <c r="DN32" s="15"/>
+      <c r="DO32" s="15"/>
+      <c r="DP32" s="15"/>
+      <c r="DQ32" s="15"/>
+      <c r="DR32" s="15"/>
+      <c r="DS32" s="15"/>
+      <c r="DT32" s="15"/>
+      <c r="DU32" s="15"/>
+      <c r="DV32" s="15"/>
+      <c r="DW32" s="15"/>
+      <c r="DX32" s="15"/>
+      <c r="DY32" s="15"/>
+      <c r="DZ32" s="15"/>
+      <c r="EA32" s="15"/>
+      <c r="EB32" s="15"/>
+      <c r="EC32" s="15"/>
+      <c r="ED32" s="15"/>
+      <c r="EE32" s="15"/>
+      <c r="EF32" s="15"/>
+      <c r="EG32" s="15"/>
+      <c r="EH32" s="15"/>
+      <c r="EI32" s="15"/>
+      <c r="EJ32" s="15"/>
+      <c r="EK32" s="15"/>
+      <c r="EL32" s="15"/>
+      <c r="EM32" s="15"/>
+      <c r="EN32" s="15"/>
+      <c r="EO32" s="15"/>
+      <c r="EP32" s="15"/>
+      <c r="EQ32" s="15"/>
+      <c r="ER32" s="15"/>
+      <c r="ES32" s="15"/>
+      <c r="ET32" s="15"/>
+      <c r="EU32" s="15"/>
+      <c r="EV32" s="15"/>
+      <c r="EW32" s="15"/>
+      <c r="EX32" s="15"/>
+      <c r="EY32" s="15"/>
+      <c r="EZ32" s="15"/>
+      <c r="FA32" s="15"/>
+      <c r="FB32" s="15"/>
+      <c r="FC32" s="15"/>
+      <c r="FD32" s="15"/>
+      <c r="FE32" s="15"/>
+      <c r="FF32" s="15"/>
+      <c r="FG32" s="15"/>
+      <c r="FH32" s="15"/>
+      <c r="FI32" s="15"/>
+      <c r="FJ32" s="15"/>
+      <c r="FK32" s="15"/>
+      <c r="FL32" s="15"/>
+      <c r="FM32" s="15"/>
+      <c r="FN32" s="15"/>
+      <c r="FO32" s="15"/>
+      <c r="FP32" s="15"/>
+      <c r="FQ32" s="18"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="48"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="54"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="54"/>
+      <c r="AO33" s="54"/>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="54"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="54"/>
+      <c r="AU33" s="54"/>
+      <c r="AV33" s="54"/>
+      <c r="AW33" s="54"/>
+      <c r="AX33" s="54"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="54"/>
+      <c r="BB33" s="54"/>
+      <c r="BC33" s="54"/>
+      <c r="BD33" s="54"/>
+      <c r="BE33" s="54"/>
+      <c r="BF33" s="54"/>
+      <c r="BG33" s="54"/>
+      <c r="BH33" s="54"/>
+      <c r="BI33" s="54"/>
+      <c r="BJ33" s="54"/>
+      <c r="BK33" s="54"/>
+      <c r="BL33" s="54"/>
+      <c r="BM33" s="54"/>
+      <c r="BN33" s="54"/>
+      <c r="BO33" s="54"/>
+      <c r="BP33" s="54"/>
+      <c r="BQ33" s="54"/>
+      <c r="BR33" s="54"/>
+      <c r="BS33" s="54"/>
+      <c r="BT33" s="54"/>
+      <c r="BU33" s="54"/>
+      <c r="BV33" s="54"/>
+      <c r="BW33" s="54"/>
+      <c r="BX33" s="54"/>
+      <c r="BY33" s="54"/>
+      <c r="BZ33" s="54"/>
+      <c r="CA33" s="54"/>
+      <c r="CB33" s="54"/>
+      <c r="CC33" s="54"/>
+      <c r="CD33" s="54"/>
+      <c r="CE33" s="54"/>
+      <c r="CF33" s="54"/>
+      <c r="CG33" s="54"/>
+      <c r="CH33" s="54"/>
+      <c r="CI33" s="54"/>
+      <c r="CJ33" s="54"/>
+      <c r="CK33" s="54"/>
+      <c r="CL33" s="54"/>
+      <c r="CM33" s="54"/>
+      <c r="CN33" s="54"/>
+      <c r="CO33" s="54"/>
+      <c r="CP33" s="54"/>
+      <c r="CQ33" s="54"/>
+      <c r="CR33" s="54"/>
+      <c r="CS33" s="54"/>
+      <c r="CT33" s="54"/>
+      <c r="CU33" s="54"/>
+      <c r="CV33" s="54"/>
+      <c r="CW33" s="54"/>
+      <c r="CX33" s="54"/>
+      <c r="CY33" s="54"/>
+      <c r="CZ33" s="54"/>
+      <c r="DA33" s="54"/>
+      <c r="DB33" s="54"/>
+      <c r="DC33" s="54"/>
+      <c r="DD33" s="54"/>
+      <c r="DE33" s="54"/>
+      <c r="DF33" s="54"/>
+      <c r="DG33" s="54"/>
+      <c r="DH33" s="54"/>
+      <c r="DI33" s="54"/>
+      <c r="DJ33" s="54"/>
+      <c r="DK33" s="54"/>
+      <c r="DL33" s="54"/>
+      <c r="DM33" s="54"/>
+      <c r="DN33" s="54"/>
+      <c r="DO33" s="54"/>
+      <c r="DP33" s="54"/>
+      <c r="DQ33" s="54"/>
+      <c r="DR33" s="54"/>
+      <c r="DS33" s="54"/>
+      <c r="DT33" s="54"/>
+      <c r="DU33" s="54"/>
+      <c r="DV33" s="54"/>
+      <c r="DW33" s="54"/>
+      <c r="DX33" s="54"/>
+      <c r="DY33" s="54"/>
+      <c r="DZ33" s="54"/>
+      <c r="EA33" s="54"/>
+      <c r="EB33" s="54"/>
+      <c r="EC33" s="54"/>
+      <c r="ED33" s="54"/>
+      <c r="EE33" s="54"/>
+      <c r="EF33" s="54"/>
+      <c r="EG33" s="54"/>
+      <c r="EH33" s="54"/>
+      <c r="EI33" s="54"/>
+      <c r="EJ33" s="54"/>
+      <c r="EK33" s="54"/>
+      <c r="EL33" s="54"/>
+      <c r="EM33" s="54"/>
+      <c r="EN33" s="54"/>
+      <c r="EO33" s="54"/>
+      <c r="EP33" s="54"/>
+      <c r="EQ33" s="54"/>
+      <c r="ER33" s="54"/>
+      <c r="ES33" s="54"/>
+      <c r="ET33" s="54"/>
+      <c r="EU33" s="54"/>
+      <c r="EV33" s="54"/>
+      <c r="EW33" s="54"/>
+      <c r="EX33" s="54"/>
+      <c r="EY33" s="54"/>
+      <c r="EZ33" s="54"/>
+      <c r="FA33" s="54"/>
+      <c r="FB33" s="54"/>
+      <c r="FC33" s="54"/>
+      <c r="FD33" s="54"/>
+      <c r="FE33" s="54"/>
+      <c r="FF33" s="54"/>
+      <c r="FG33" s="54"/>
+      <c r="FH33" s="54"/>
+      <c r="FI33" s="54"/>
+      <c r="FJ33" s="54"/>
+      <c r="FK33" s="54"/>
+      <c r="FL33" s="54"/>
+      <c r="FM33" s="54"/>
+      <c r="FN33" s="54"/>
+      <c r="FO33" s="54"/>
+      <c r="FP33" s="54"/>
+      <c r="FQ33" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="10">
